--- a/capiq_data/in_process_data/IQ28606.xlsx
+++ b/capiq_data/in_process_data/IQ28606.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99215D17-23D9-4FC4-95FB-E8335388B495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DF3BF5-B836-4073-8A4F-66BA40EF31C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"319f946c-387b-411c-9b33-50e571b62bb4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8a75d89f-7a70-4d0b-b7b9-5f7369a25522"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-53.5</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>810.5</v>
+        <v>-923</v>
       </c>
       <c r="E2">
-        <v>852.9</v>
+        <v>358.6</v>
       </c>
       <c r="F2">
-        <v>264.39999999999998</v>
+        <v>-201.4</v>
       </c>
       <c r="G2">
-        <v>1646.2</v>
+        <v>1326</v>
       </c>
       <c r="H2">
-        <v>3319.9</v>
+        <v>3061.7</v>
       </c>
       <c r="I2">
-        <v>389.3</v>
+        <v>329.1</v>
       </c>
       <c r="J2">
-        <v>503</v>
+        <v>871.8</v>
       </c>
       <c r="K2">
-        <v>18.5</v>
+        <v>164.8</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>963.4</v>
+        <v>882.2</v>
       </c>
       <c r="O2">
-        <v>2130.6999999999998</v>
+        <v>2214.8000000000002</v>
       </c>
       <c r="P2">
-        <v>637.9</v>
+        <v>1059.3</v>
       </c>
       <c r="Q2">
-        <v>-105.8</v>
+        <v>-10.5</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4900</v>
+        <v>14802</v>
       </c>
       <c r="T2">
-        <v>1189.2</v>
+        <v>846.9</v>
       </c>
       <c r="U2">
-        <v>161.5</v>
+        <v>7.3</v>
       </c>
       <c r="V2">
-        <v>69.7</v>
+        <v>131.6</v>
       </c>
       <c r="W2">
-        <v>-9.1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-129.9</v>
+        <v>-164</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="AA2">
-        <v>-53.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>-26.5</v>
       </c>
       <c r="D3">
-        <v>795</v>
+        <v>447.2</v>
       </c>
       <c r="E3">
-        <v>973.9</v>
+        <v>654.70000000000005</v>
       </c>
       <c r="F3">
-        <v>288.10000000000002</v>
+        <v>120.9</v>
       </c>
       <c r="G3">
-        <v>1717.5</v>
+        <v>1521.9</v>
       </c>
       <c r="H3">
-        <v>3416.2</v>
+        <v>3891.1</v>
       </c>
       <c r="I3">
-        <v>351.2</v>
+        <v>602.6</v>
       </c>
       <c r="J3">
-        <v>533.9</v>
+        <v>843.2</v>
       </c>
       <c r="K3">
-        <v>9.4</v>
+        <v>506.7</v>
       </c>
       <c r="L3">
-        <v>-9.5</v>
+        <v>-16.5</v>
       </c>
       <c r="M3">
-        <v>-7.6</v>
+        <v>-49</v>
       </c>
       <c r="N3">
-        <v>906.3</v>
+        <v>1600.6</v>
       </c>
       <c r="O3">
-        <v>2098.8000000000002</v>
+        <v>3060.2</v>
       </c>
       <c r="P3">
-        <v>663</v>
+        <v>1352.7</v>
       </c>
       <c r="Q3">
-        <v>-75.5</v>
+        <v>11.5</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1317.4</v>
+        <v>830.9</v>
       </c>
       <c r="U3">
-        <v>86</v>
+        <v>30.8</v>
       </c>
       <c r="V3">
-        <v>-59.6</v>
+        <v>-251.5</v>
       </c>
       <c r="W3">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>94</v>
+        <v>-26.5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>107.2</v>
+        <v>-299.8</v>
       </c>
       <c r="D4">
-        <v>812.2</v>
+        <v>523.20000000000005</v>
       </c>
       <c r="E4">
-        <v>858.4</v>
+        <v>689</v>
       </c>
       <c r="F4">
-        <v>298.8</v>
+        <v>159</v>
       </c>
       <c r="G4">
-        <v>1753.1</v>
+        <v>1510</v>
       </c>
       <c r="H4">
-        <v>3466.2</v>
+        <v>3767</v>
       </c>
       <c r="I4">
-        <v>320.89999999999998</v>
+        <v>589.29999999999995</v>
       </c>
       <c r="J4">
-        <v>485.5</v>
+        <v>932.1</v>
       </c>
       <c r="K4">
-        <v>27.2</v>
+        <v>196.6</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>925.3</v>
+        <v>1529.5</v>
       </c>
       <c r="O4">
-        <v>2044.9</v>
+        <v>3054.1</v>
       </c>
       <c r="P4">
-        <v>622.9</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="Q4">
-        <v>100.6</v>
+        <v>2.1</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1421.3</v>
+        <v>712.9</v>
       </c>
       <c r="U4">
-        <v>186.6</v>
+        <v>32.4</v>
       </c>
       <c r="V4">
-        <v>203.4</v>
+        <v>54.5</v>
       </c>
       <c r="W4">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-57.8</v>
+        <v>10.4</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="AA4">
-        <v>107.2</v>
+        <v>-299.8</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>86.8</v>
+        <v>21.3</v>
       </c>
       <c r="D5">
-        <v>862.1</v>
+        <v>482.8</v>
       </c>
       <c r="E5">
-        <v>854.3</v>
+        <v>669.8</v>
       </c>
       <c r="F5">
-        <v>287.39999999999998</v>
+        <v>115.4</v>
       </c>
       <c r="G5">
-        <v>1690.3</v>
+        <v>1575</v>
       </c>
       <c r="H5">
-        <v>3389.6</v>
+        <v>3792.8</v>
       </c>
       <c r="I5">
-        <v>345.6</v>
+        <v>563</v>
       </c>
       <c r="J5">
-        <v>493.6</v>
+        <v>1001.7</v>
       </c>
       <c r="K5">
-        <v>30.1</v>
+        <v>192.9</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>909.5</v>
+        <v>1493.6</v>
       </c>
       <c r="O5">
-        <v>2011.3</v>
+        <v>3065.2</v>
       </c>
       <c r="P5">
-        <v>571.1</v>
+        <v>1230.5</v>
       </c>
       <c r="Q5">
-        <v>-77.2</v>
+        <v>13.7</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1378.3</v>
+        <v>727.6</v>
       </c>
       <c r="U5">
-        <v>109.4</v>
+        <v>123.6</v>
       </c>
       <c r="V5">
-        <v>154.19999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="W5">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-172.2</v>
+        <v>-26</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
       <c r="AA5">
-        <v>86.8</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>77.900000000000006</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="D6">
-        <v>908.6</v>
+        <v>489.8</v>
       </c>
       <c r="E6">
-        <v>931.3</v>
+        <v>441.7</v>
       </c>
       <c r="F6">
-        <v>293.89999999999998</v>
+        <v>130.6</v>
       </c>
       <c r="G6">
-        <v>1869.4</v>
+        <v>820.3</v>
       </c>
       <c r="H6">
-        <v>3743.5</v>
+        <v>2477.1999999999998</v>
       </c>
       <c r="I6">
-        <v>382.1</v>
+        <v>327.7</v>
       </c>
       <c r="J6">
-        <v>779.1</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="K6">
-        <v>27</v>
+        <v>192.5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,247 +1224,247 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>919.9</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="O6">
-        <v>2439.4</v>
+        <v>2213.6</v>
       </c>
       <c r="P6">
-        <v>825.6</v>
+        <v>979.5</v>
       </c>
       <c r="Q6">
-        <v>49.5</v>
+        <v>-11.2</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="T6">
-        <v>1304.0999999999999</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="U6">
-        <v>158.9</v>
+        <v>23.4</v>
       </c>
       <c r="V6">
-        <v>83.3</v>
+        <v>-45.6</v>
       </c>
       <c r="W6">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>188.7</v>
+        <v>64.3</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-3.2</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="AA6">
-        <v>77.900000000000006</v>
+        <v>-32.700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>119.1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>940.7</v>
+        <v>434.2</v>
       </c>
       <c r="E7">
-        <v>1051.0999999999999</v>
+        <v>406.4</v>
       </c>
       <c r="F7">
-        <v>350.7</v>
+        <v>107.3</v>
       </c>
       <c r="G7">
-        <v>1943.3</v>
+        <v>793.6</v>
       </c>
       <c r="H7">
-        <v>3851.6</v>
+        <v>2432.5</v>
       </c>
       <c r="I7">
-        <v>376.1</v>
+        <v>212.2</v>
       </c>
       <c r="J7">
-        <v>910.4</v>
+        <v>623.1</v>
       </c>
       <c r="K7">
-        <v>22.8</v>
+        <v>340.8</v>
       </c>
       <c r="L7">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="N7">
-        <v>917.2</v>
+        <v>1048.3</v>
       </c>
       <c r="O7">
-        <v>2552</v>
+        <v>2164.9</v>
       </c>
       <c r="P7">
-        <v>946.5</v>
+        <v>1118</v>
       </c>
       <c r="Q7">
-        <v>-88.1</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1299.5999999999999</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="U7">
-        <v>70.8</v>
+        <v>14.2</v>
       </c>
       <c r="V7">
-        <v>12.4</v>
+        <v>-211.9</v>
       </c>
       <c r="W7">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-33</v>
+        <v>213.6</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3</v>
+        <v>5.4</v>
       </c>
       <c r="AA7">
-        <v>119.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>104.9</v>
+        <v>19.2</v>
       </c>
       <c r="D8">
-        <v>731.8</v>
+        <v>482.4</v>
       </c>
       <c r="E8">
+        <v>407.9</v>
+      </c>
+      <c r="F8">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="G8">
+        <v>808.7</v>
+      </c>
+      <c r="H8">
+        <v>2466.6999999999998</v>
+      </c>
+      <c r="I8">
+        <v>219.1</v>
+      </c>
+      <c r="J8">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="K8">
+        <v>270.2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>938.1</v>
+      </c>
+      <c r="O8">
+        <v>2032.2</v>
+      </c>
+      <c r="P8">
         <v>993.7</v>
       </c>
-      <c r="F8">
-        <v>304.7</v>
-      </c>
-      <c r="G8">
-        <v>1952.7</v>
-      </c>
-      <c r="H8">
-        <v>3907.6</v>
-      </c>
-      <c r="I8">
-        <v>366.4</v>
-      </c>
-      <c r="J8">
-        <v>810</v>
-      </c>
-      <c r="K8">
-        <v>41.6</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>996.4</v>
-      </c>
-      <c r="O8">
-        <v>2521.1</v>
-      </c>
-      <c r="P8">
-        <v>856.5</v>
-      </c>
       <c r="Q8">
-        <v>4.7</v>
+        <v>36.1</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1386.5</v>
+        <v>434.5</v>
       </c>
       <c r="U8">
-        <v>75.5</v>
+        <v>50.3</v>
       </c>
       <c r="V8">
-        <v>234.6</v>
+        <v>151.6</v>
       </c>
       <c r="W8">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-97.9</v>
+        <v>-78.900000000000006</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-3.8</v>
+        <v>-24.5</v>
       </c>
       <c r="AA8">
-        <v>104.9</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>28.2</v>
       </c>
       <c r="D9">
-        <v>821.9</v>
+        <v>476.6</v>
       </c>
       <c r="E9">
-        <v>1009.2</v>
+        <v>367.5</v>
       </c>
       <c r="F9">
-        <v>298.60000000000002</v>
+        <v>126.5</v>
       </c>
       <c r="G9">
-        <v>2025.5</v>
+        <v>734.6</v>
       </c>
       <c r="H9">
-        <v>4065.9</v>
+        <v>2367.9</v>
       </c>
       <c r="I9">
-        <v>384.5</v>
+        <v>212.3</v>
       </c>
       <c r="J9">
-        <v>807.9</v>
+        <v>568.79999999999995</v>
       </c>
       <c r="K9">
-        <v>58.6</v>
+        <v>80</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1087.3</v>
+        <v>884.7</v>
       </c>
       <c r="O9">
-        <v>2577.8000000000002</v>
+        <v>1902.8</v>
       </c>
       <c r="P9">
-        <v>869.4</v>
+        <v>909.6</v>
       </c>
       <c r="Q9">
-        <v>8.9</v>
+        <v>-13</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1488.1</v>
+        <v>465.1</v>
       </c>
       <c r="U9">
-        <v>84.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="V9">
-        <v>85.6</v>
+        <v>108.4</v>
       </c>
       <c r="W9">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-6.2</v>
+        <v>-104.4</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-2.9</v>
+        <v>-5.4</v>
       </c>
       <c r="AA9">
-        <v>90</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>102.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>915.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1073.7</v>
+        <v>462.2</v>
       </c>
       <c r="F10">
-        <v>321.5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2181.9</v>
+        <v>1175.7</v>
       </c>
       <c r="H10">
-        <v>4373.8999999999996</v>
+        <v>2872</v>
       </c>
       <c r="I10">
-        <v>404.2</v>
+        <v>286.5</v>
       </c>
       <c r="J10">
-        <v>908.8</v>
+        <v>1035.9000000000001</v>
       </c>
       <c r="K10">
-        <v>49.9</v>
+        <v>82.5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1135.5</v>
+        <v>874.6</v>
       </c>
       <c r="O10">
-        <v>2819.1</v>
+        <v>2421.1999999999998</v>
       </c>
       <c r="P10">
-        <v>964.4</v>
+        <v>1285.2</v>
       </c>
       <c r="Q10">
-        <v>-7.3</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="T10">
-        <v>1554.8</v>
+        <v>450.8</v>
       </c>
       <c r="U10">
-        <v>77.099999999999994</v>
+        <v>89.6</v>
       </c>
       <c r="V10">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>88.9</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>102.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>130.9</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
-        <v>910.7</v>
+        <v>434</v>
       </c>
       <c r="E11">
-        <v>1223.0999999999999</v>
+        <v>504.9</v>
       </c>
       <c r="F11">
-        <v>353.6</v>
+        <v>108.8</v>
       </c>
       <c r="G11">
-        <v>2285.3000000000002</v>
+        <v>1197.3</v>
       </c>
       <c r="H11">
-        <v>4448</v>
+        <v>2915.5</v>
       </c>
       <c r="I11">
-        <v>361.9</v>
+        <v>231.6</v>
       </c>
       <c r="J11">
-        <v>1233.9000000000001</v>
+        <v>1122.5</v>
       </c>
       <c r="K11">
-        <v>37.200000000000003</v>
+        <v>82.3</v>
       </c>
       <c r="L11">
-        <v>-13.4</v>
+        <v>-20.7</v>
       </c>
       <c r="M11">
-        <v>-0.3</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="N11">
-        <v>987.7</v>
+        <v>804.4</v>
       </c>
       <c r="O11">
-        <v>2964.8</v>
+        <v>2431.1999999999998</v>
       </c>
       <c r="P11">
-        <v>1277.0999999999999</v>
+        <v>1356.3</v>
       </c>
       <c r="Q11">
-        <v>5.5</v>
+        <v>-29.6</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1483.2</v>
+        <v>484.3</v>
       </c>
       <c r="U11">
-        <v>82.6</v>
+        <v>60</v>
       </c>
       <c r="V11">
-        <v>-44.5</v>
+        <v>-102.8</v>
       </c>
       <c r="W11">
-        <v>-18.7</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>105.3</v>
+        <v>87.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-3.2</v>
+        <v>0.7</v>
       </c>
       <c r="AA11">
-        <v>130.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>118</v>
+        <v>21.7</v>
       </c>
       <c r="D12">
-        <v>876</v>
+        <v>510</v>
       </c>
       <c r="E12">
-        <v>1092.0999999999999</v>
+        <v>487.6</v>
       </c>
       <c r="F12">
-        <v>327.5</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="G12">
-        <v>2182.6999999999998</v>
+        <v>1224.5</v>
       </c>
       <c r="H12">
-        <v>4349.7</v>
+        <v>2981.1</v>
       </c>
       <c r="I12">
-        <v>344.8</v>
+        <v>239.4</v>
       </c>
       <c r="J12">
-        <v>762.4</v>
+        <v>1109.3</v>
       </c>
       <c r="K12">
-        <v>286.39999999999998</v>
+        <v>63.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1268.9000000000001</v>
+        <v>814.8</v>
       </c>
       <c r="O12">
-        <v>2751.1</v>
+        <v>2426.9</v>
       </c>
       <c r="P12">
-        <v>1070.5999999999999</v>
+        <v>1321</v>
       </c>
       <c r="Q12">
-        <v>-5.2</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1598.6</v>
+        <v>554.20000000000005</v>
       </c>
       <c r="U12">
-        <v>77.400000000000006</v>
+        <v>93.7</v>
       </c>
       <c r="V12">
-        <v>277.60000000000002</v>
+        <v>111.2</v>
       </c>
       <c r="W12">
-        <v>-18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-224.4</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.3</v>
+        <v>-27.3</v>
       </c>
       <c r="AA12">
-        <v>118</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>17.899999999999999</v>
+        <v>-3.4</v>
       </c>
       <c r="D13">
-        <v>957.4</v>
+        <v>470.5</v>
       </c>
       <c r="E13">
-        <v>1179.5999999999999</v>
+        <v>432.5</v>
       </c>
       <c r="F13">
-        <v>306.5</v>
+        <v>126.1</v>
       </c>
       <c r="G13">
-        <v>2610.6999999999998</v>
+        <v>1082.9000000000001</v>
       </c>
       <c r="H13">
-        <v>4930.8</v>
+        <v>2812.4</v>
       </c>
       <c r="I13">
-        <v>388.9</v>
+        <v>229.6</v>
       </c>
       <c r="J13">
-        <v>771.8</v>
+        <v>1034.0999999999999</v>
       </c>
       <c r="K13">
-        <v>919.1</v>
+        <v>68.2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2066.5</v>
+        <v>749.7</v>
       </c>
       <c r="O13">
-        <v>3557.2</v>
+        <v>2266.6</v>
       </c>
       <c r="P13">
-        <v>1714.2</v>
+        <v>1126.3</v>
       </c>
       <c r="Q13">
-        <v>32.200000000000003</v>
+        <v>59.4</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1373.6</v>
+        <v>545.79999999999995</v>
       </c>
       <c r="U13">
-        <v>109.6</v>
+        <v>153.1</v>
       </c>
       <c r="V13">
-        <v>116.1</v>
+        <v>151.6</v>
       </c>
       <c r="W13">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>372.8</v>
+        <v>-72.2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1.7</v>
+        <v>-21.3</v>
       </c>
       <c r="AA13">
-        <v>17.899999999999999</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1130.7</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1484.3</v>
+        <v>478.2</v>
       </c>
       <c r="F14">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2945</v>
+        <v>980.6</v>
       </c>
       <c r="H14">
-        <v>5235.2</v>
+        <v>2828.8</v>
       </c>
       <c r="I14">
-        <v>475.2</v>
+        <v>299.5</v>
       </c>
       <c r="J14">
-        <v>1154.0999999999999</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="K14">
-        <v>663.1</v>
+        <v>13.8</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,120 +1888,120 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1986.7</v>
+        <v>727.5</v>
       </c>
       <c r="O14">
-        <v>3663.1</v>
+        <v>2192.1999999999998</v>
       </c>
       <c r="P14">
-        <v>1884.3</v>
+        <v>1050.2</v>
       </c>
       <c r="Q14">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="T14">
-        <v>1572.1</v>
+        <v>636.6</v>
       </c>
       <c r="U14">
-        <v>123.2</v>
+        <v>57</v>
       </c>
       <c r="V14">
-        <v>-20.5</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>117.5</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>27.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>65.599999999999994</v>
+        <v>5.5</v>
       </c>
       <c r="D15">
-        <v>756.9</v>
+        <v>505.7</v>
       </c>
       <c r="E15">
-        <v>1568.3</v>
+        <v>550.6</v>
       </c>
       <c r="F15">
-        <v>296.10000000000002</v>
+        <v>128.1</v>
       </c>
       <c r="G15">
-        <v>2752.5</v>
+        <v>1087.3</v>
       </c>
       <c r="H15">
-        <v>5090.7</v>
+        <v>2860</v>
       </c>
       <c r="I15">
-        <v>380.2</v>
+        <v>256.7</v>
       </c>
       <c r="J15">
-        <v>1154</v>
+        <v>1096.3</v>
       </c>
       <c r="K15">
-        <v>623.70000000000005</v>
+        <v>79</v>
       </c>
       <c r="L15">
-        <v>-39.6</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.7</v>
+        <v>-4.5</v>
       </c>
       <c r="N15">
-        <v>1726.7</v>
+        <v>694.7</v>
       </c>
       <c r="O15">
-        <v>3403.3</v>
+        <v>2215.4</v>
       </c>
       <c r="P15">
-        <v>1812.5</v>
+        <v>1178.3</v>
       </c>
       <c r="Q15">
-        <v>-30.7</v>
+        <v>8.1</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1687.4</v>
+        <v>644.6</v>
       </c>
       <c r="U15">
-        <v>92.5</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="V15">
-        <v>-96.8</v>
+        <v>-64.400000000000006</v>
       </c>
       <c r="W15">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-56.7</v>
+        <v>86</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>65.599999999999994</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>109.1</v>
+        <v>30.7</v>
       </c>
       <c r="D16">
-        <v>794.9</v>
+        <v>534.29999999999995</v>
       </c>
       <c r="E16">
-        <v>1500</v>
+        <v>482.9</v>
       </c>
       <c r="F16">
-        <v>317.2</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="G16">
-        <v>2752</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="H16">
-        <v>5127.3</v>
+        <v>2803.9</v>
       </c>
       <c r="I16">
-        <v>393.3</v>
+        <v>238.6</v>
       </c>
       <c r="J16">
-        <v>1153.7</v>
+        <v>994.8</v>
       </c>
       <c r="K16">
-        <v>525.29999999999995</v>
+        <v>57</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1692.9</v>
+        <v>698.3</v>
       </c>
       <c r="O16">
-        <v>3358.9</v>
+        <v>2107.5</v>
       </c>
       <c r="P16">
-        <v>1697.9</v>
+        <v>1115.0999999999999</v>
       </c>
       <c r="Q16">
-        <v>21.9</v>
+        <v>35.5</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1768.4</v>
+        <v>696.4</v>
       </c>
       <c r="U16">
-        <v>114.4</v>
+        <v>100.6</v>
       </c>
       <c r="V16">
-        <v>211.4</v>
+        <v>117.1</v>
       </c>
       <c r="W16">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-141.5</v>
+        <v>-29.1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-34.6</v>
       </c>
       <c r="AA16">
-        <v>109.1</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>56.3</v>
+        <v>29.5</v>
       </c>
       <c r="D17">
-        <v>819.1</v>
+        <v>497.5</v>
       </c>
       <c r="E17">
-        <v>1572.6</v>
+        <v>482.8</v>
       </c>
       <c r="F17">
-        <v>283.5</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="G17">
-        <v>2857.3</v>
+        <v>1110.5</v>
       </c>
       <c r="H17">
-        <v>5251.1</v>
+        <v>2878.7</v>
       </c>
       <c r="I17">
-        <v>440</v>
+        <v>239.3</v>
       </c>
       <c r="J17">
-        <v>1151.9000000000001</v>
+        <v>968.6</v>
       </c>
       <c r="K17">
-        <v>561.70000000000005</v>
+        <v>94.4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1741.5</v>
+        <v>760.2</v>
       </c>
       <c r="O17">
-        <v>3466.8</v>
+        <v>2132.1</v>
       </c>
       <c r="P17">
-        <v>1732.3</v>
+        <v>1126.3</v>
       </c>
       <c r="Q17">
-        <v>9.9</v>
+        <v>84.6</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1784.3</v>
+        <v>746.6</v>
       </c>
       <c r="U17">
-        <v>124.3</v>
+        <v>185.2</v>
       </c>
       <c r="V17">
-        <v>87.1</v>
+        <v>119.4</v>
       </c>
       <c r="W17">
-        <v>-20.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-1.4</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="AA17">
-        <v>56.3</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>76.5</v>
+        <v>94.5</v>
       </c>
       <c r="D18">
-        <v>887.8</v>
+        <v>513.70000000000005</v>
       </c>
       <c r="E18">
-        <v>1602.5</v>
+        <v>479.7</v>
       </c>
       <c r="F18">
-        <v>318.3</v>
+        <v>154.4</v>
       </c>
       <c r="G18">
-        <v>2934.4</v>
+        <v>1072.7</v>
       </c>
       <c r="H18">
-        <v>5326</v>
+        <v>2978.4</v>
       </c>
       <c r="I18">
-        <v>378.3</v>
+        <v>339.1</v>
       </c>
       <c r="J18">
-        <v>1138.9000000000001</v>
+        <v>822.2</v>
       </c>
       <c r="K18">
-        <v>523.20000000000005</v>
+        <v>36.6</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1910.4</v>
+        <v>820.1</v>
       </c>
       <c r="O18">
-        <v>3762</v>
+        <v>2051.1</v>
       </c>
       <c r="P18">
-        <v>1697.7</v>
+        <v>929.6</v>
       </c>
       <c r="Q18">
-        <v>-14.8</v>
+        <v>27.2</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="T18">
-        <v>1564</v>
+        <v>927.3</v>
       </c>
       <c r="U18">
-        <v>109.5</v>
+        <v>212.4</v>
       </c>
       <c r="V18">
-        <v>172</v>
+        <v>38.6</v>
       </c>
       <c r="W18">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-150.30000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="Y18">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>76.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-46.8</v>
+        <v>64.5</v>
       </c>
       <c r="D19">
-        <v>659.4</v>
+        <v>552.4</v>
       </c>
       <c r="E19">
-        <v>1537.4</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="F19">
-        <v>250.7</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="G19">
-        <v>3329.6</v>
+        <v>1126</v>
       </c>
       <c r="H19">
-        <v>5311.7</v>
+        <v>2970.1</v>
       </c>
       <c r="I19">
-        <v>316.5</v>
+        <v>279.8</v>
       </c>
       <c r="J19">
-        <v>1150.9000000000001</v>
+        <v>819.1</v>
       </c>
       <c r="K19">
-        <v>905.6</v>
+        <v>95.3</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="M19">
-        <v>-0.4</v>
+        <v>-2.7</v>
       </c>
       <c r="N19">
-        <v>2015.6</v>
+        <v>754.9</v>
       </c>
       <c r="O19">
-        <v>3842.3</v>
+        <v>1976.6</v>
       </c>
       <c r="P19">
-        <v>2058.1999999999998</v>
+        <v>985.2</v>
       </c>
       <c r="Q19">
-        <v>-4.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1469.4</v>
+        <v>993.5</v>
       </c>
       <c r="U19">
-        <v>105.2</v>
+        <v>229.3</v>
       </c>
       <c r="V19">
-        <v>-297.2</v>
+        <v>25.8</v>
       </c>
       <c r="W19">
-        <v>-20.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>364.8</v>
+        <v>9.5</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-46.8</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>742.3</v>
+        <v>31.2</v>
       </c>
       <c r="D20">
-        <v>887.1</v>
+        <v>565.6</v>
       </c>
       <c r="E20">
-        <v>1865.5</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="F20">
-        <v>325.10000000000002</v>
+        <v>178.2</v>
       </c>
       <c r="G20">
-        <v>3805.7</v>
+        <v>1136</v>
       </c>
       <c r="H20">
-        <v>7075.2</v>
+        <v>2906</v>
       </c>
       <c r="I20">
-        <v>578.4</v>
+        <v>254.1</v>
       </c>
       <c r="J20">
-        <v>2050.9</v>
+        <v>804.1</v>
       </c>
       <c r="K20">
-        <v>266.60000000000002</v>
+        <v>118.6</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1980.6</v>
+        <v>717.4</v>
       </c>
       <c r="O20">
-        <v>4866.8999999999996</v>
+        <v>1917.5</v>
       </c>
       <c r="P20">
-        <v>2319.1999999999998</v>
+        <v>948.5</v>
       </c>
       <c r="Q20">
-        <v>372.3</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2208.3000000000002</v>
+        <v>988.5</v>
       </c>
       <c r="U20">
-        <v>477.5</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="V20">
-        <v>124.6</v>
+        <v>86.6</v>
       </c>
       <c r="W20">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-170.9</v>
+        <v>-25</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AA20">
-        <v>742.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-2.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D21">
-        <v>830.7</v>
+        <v>510</v>
       </c>
       <c r="E21">
-        <v>1689.6</v>
+        <v>482.1</v>
       </c>
       <c r="F21">
-        <v>249.1</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="G21">
-        <v>3238.1</v>
+        <v>941.3</v>
       </c>
       <c r="H21">
-        <v>6447</v>
+        <v>2684.3</v>
       </c>
       <c r="I21">
-        <v>484.2</v>
+        <v>230.5</v>
       </c>
       <c r="J21">
-        <v>2048.5</v>
+        <v>618.70000000000005</v>
       </c>
       <c r="K21">
-        <v>119.8</v>
+        <v>57.1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1455</v>
+        <v>669.2</v>
       </c>
       <c r="O21">
-        <v>4292.3999999999996</v>
+        <v>1670.9</v>
       </c>
       <c r="P21">
-        <v>2169.6999999999998</v>
+        <v>701.6</v>
       </c>
       <c r="Q21">
-        <v>-303.8</v>
+        <v>-175.3</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2154.6</v>
+        <v>1013.4</v>
       </c>
       <c r="U21">
-        <v>173.7</v>
+        <v>93.8</v>
       </c>
       <c r="V21">
-        <v>-137.9</v>
+        <v>50.1</v>
       </c>
       <c r="W21">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-165.9</v>
+        <v>-222.1</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-2.4</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-204.1</v>
+        <v>25.3</v>
       </c>
       <c r="D22">
-        <v>899.3</v>
+        <v>522.20000000000005</v>
       </c>
       <c r="E22">
-        <v>1851.4</v>
+        <v>494.3</v>
       </c>
       <c r="F22">
-        <v>308.3</v>
+        <v>162.1</v>
       </c>
       <c r="G22">
-        <v>2971.9</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="H22">
-        <v>6325.9</v>
+        <v>2740</v>
       </c>
       <c r="I22">
-        <v>403.6</v>
+        <v>301</v>
       </c>
       <c r="J22">
-        <v>2036.3</v>
+        <v>639.79999999999995</v>
       </c>
       <c r="K22">
-        <v>111.1</v>
+        <v>79.5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,120 +2552,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1453.3</v>
+        <v>659.3</v>
       </c>
       <c r="O22">
-        <v>4417.6000000000004</v>
+        <v>1729.2</v>
       </c>
       <c r="P22">
-        <v>2183.1999999999998</v>
+        <v>720.2</v>
       </c>
       <c r="Q22">
-        <v>-95.1</v>
+        <v>112.6</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="T22">
-        <v>1908.3</v>
+        <v>1010.8</v>
       </c>
       <c r="U22">
-        <v>78.599999999999994</v>
+        <v>206.4</v>
       </c>
       <c r="V22">
-        <v>-47.2</v>
+        <v>54.5</v>
       </c>
       <c r="W22">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-44.7</v>
+        <v>22.3</v>
       </c>
       <c r="Y22">
-        <v>34.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>31.9</v>
+        <v>69.5</v>
       </c>
       <c r="AA22">
-        <v>-204.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>48.3</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D23">
-        <v>606.4</v>
+        <v>594.1</v>
       </c>
       <c r="E23">
-        <v>1769.2</v>
+        <v>591.6</v>
       </c>
       <c r="F23">
-        <v>216</v>
+        <v>193.7</v>
       </c>
       <c r="G23">
-        <v>2955.2</v>
+        <v>1118.5999999999999</v>
       </c>
       <c r="H23">
-        <v>6390.4</v>
+        <v>2778.6</v>
       </c>
       <c r="I23">
-        <v>516.4</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="J23">
-        <v>1986.2</v>
+        <v>603.5</v>
       </c>
       <c r="K23">
-        <v>112.4</v>
+        <v>82.3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-50.3</v>
+        <v>-0.2</v>
       </c>
       <c r="N23">
-        <v>1451.3</v>
+        <v>677.9</v>
       </c>
       <c r="O23">
-        <v>4387.1000000000004</v>
+        <v>1719.8</v>
       </c>
       <c r="P23">
-        <v>2100.4</v>
+        <v>726.6</v>
       </c>
       <c r="Q23">
-        <v>-14.3</v>
+        <v>-22.3</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2003.3</v>
+        <v>1058.8</v>
       </c>
       <c r="U23">
-        <v>64.3</v>
+        <v>184.1</v>
       </c>
       <c r="V23">
-        <v>100</v>
+        <v>-25.5</v>
       </c>
       <c r="W23">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-71</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>48.3</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>65.2</v>
+        <v>46.3</v>
       </c>
       <c r="D24">
-        <v>615.29999999999995</v>
+        <v>592.29999999999995</v>
       </c>
       <c r="E24">
-        <v>1627.6</v>
+        <v>599.9</v>
       </c>
       <c r="F24">
-        <v>235.4</v>
+        <v>184.4</v>
       </c>
       <c r="G24">
-        <v>2899.1</v>
+        <v>1133.8</v>
       </c>
       <c r="H24">
-        <v>6282.2</v>
+        <v>2781.2</v>
       </c>
       <c r="I24">
-        <v>440.4</v>
+        <v>254.3</v>
       </c>
       <c r="J24">
-        <v>1988.9</v>
+        <v>574.5</v>
       </c>
       <c r="K24">
-        <v>50.8</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1354.1</v>
+        <v>681</v>
       </c>
       <c r="O24">
-        <v>4240.3</v>
+        <v>1684.1</v>
       </c>
       <c r="P24">
-        <v>2042.1</v>
+        <v>680.4</v>
       </c>
       <c r="Q24">
-        <v>29.3</v>
+        <v>19.7</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2041.9</v>
+        <v>1097.0999999999999</v>
       </c>
       <c r="U24">
-        <v>93.6</v>
+        <v>203.8</v>
       </c>
       <c r="V24">
-        <v>124.5</v>
+        <v>111.2</v>
       </c>
       <c r="W24">
-        <v>-22.2</v>
+        <v>-7</v>
       </c>
       <c r="X24">
-        <v>-80.099999999999994</v>
+        <v>-75.8</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="AA24">
-        <v>65.2</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>79.7</v>
+        <v>35.1</v>
       </c>
       <c r="D25">
-        <v>628.79999999999995</v>
+        <v>572.20000000000005</v>
       </c>
       <c r="E25">
-        <v>1603.4</v>
+        <v>538.1</v>
       </c>
       <c r="F25">
-        <v>214.6</v>
+        <v>159.6</v>
       </c>
       <c r="G25">
-        <v>2804.1</v>
+        <v>1131.3</v>
       </c>
       <c r="H25">
-        <v>6209.8</v>
+        <v>2786.2</v>
       </c>
       <c r="I25">
-        <v>371.6</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="J25">
-        <v>1913.3</v>
+        <v>577.9</v>
       </c>
       <c r="K25">
-        <v>60.8</v>
+        <v>58.2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1308.8</v>
+        <v>708.4</v>
       </c>
       <c r="O25">
-        <v>4089.1</v>
+        <v>1711.1</v>
       </c>
       <c r="P25">
-        <v>1976.5</v>
+        <v>676.9</v>
       </c>
       <c r="Q25">
-        <v>37.1</v>
+        <v>53.7</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2120.6999999999998</v>
+        <v>1075.0999999999999</v>
       </c>
       <c r="U25">
-        <v>130.69999999999999</v>
+        <v>257.5</v>
       </c>
       <c r="V25">
-        <v>163.6</v>
+        <v>155.6</v>
       </c>
       <c r="W25">
-        <v>-22.1</v>
+        <v>-7.1</v>
       </c>
       <c r="X25">
-        <v>-89.3</v>
+        <v>-67</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="AA25">
-        <v>79.7</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>15.9</v>
+        <v>12.2</v>
       </c>
       <c r="D26">
-        <v>688.4</v>
+        <v>587.29999999999995</v>
       </c>
       <c r="E26">
-        <v>1692.5</v>
+        <v>537.9</v>
       </c>
       <c r="F26">
-        <v>265.2</v>
+        <v>171.7</v>
       </c>
       <c r="G26">
-        <v>2849.2</v>
+        <v>1067.8</v>
       </c>
       <c r="H26">
-        <v>6139.3</v>
+        <v>2740.7</v>
       </c>
       <c r="I26">
-        <v>317.39999999999998</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="J26">
-        <v>1798.8</v>
+        <v>523.5</v>
       </c>
       <c r="K26">
-        <v>91.8</v>
+        <v>53.7</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1438.2</v>
+        <v>717.5</v>
       </c>
       <c r="O26">
-        <v>4146.3</v>
+        <v>1671.5</v>
       </c>
       <c r="P26">
-        <v>1921</v>
+        <v>629.70000000000005</v>
       </c>
       <c r="Q26">
-        <v>-66.5</v>
+        <v>-92</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="T26">
-        <v>1993</v>
+        <v>1069.2</v>
       </c>
       <c r="U26">
-        <v>64.2</v>
+        <v>165.5</v>
       </c>
       <c r="V26">
-        <v>109.7</v>
+        <v>22.7</v>
       </c>
       <c r="W26">
-        <v>-22.2</v>
+        <v>-6.9</v>
       </c>
       <c r="X26">
-        <v>-136.6</v>
+        <v>-73.8</v>
       </c>
       <c r="Y26">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AA26">
-        <v>15.9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-124.2</v>
+        <v>45.8</v>
       </c>
       <c r="D27">
-        <v>596</v>
+        <v>674.1</v>
       </c>
       <c r="E27">
-        <v>1630.6</v>
+        <v>690.1</v>
       </c>
       <c r="F27">
-        <v>216.2</v>
+        <v>210.8</v>
       </c>
       <c r="G27">
-        <v>3554.2</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="H27">
-        <v>6036.3</v>
+        <v>2764.5</v>
       </c>
       <c r="I27">
-        <v>390.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="J27">
-        <v>1790.4</v>
+        <v>515.5</v>
       </c>
       <c r="K27">
-        <v>214.9</v>
+        <v>89.8</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.7</v>
+        <v>-51.4</v>
       </c>
       <c r="N27">
-        <v>1488.8</v>
+        <v>669.1</v>
       </c>
       <c r="O27">
-        <v>4144.8999999999996</v>
+        <v>1648.2</v>
       </c>
       <c r="P27">
-        <v>2007.7</v>
+        <v>617.70000000000005</v>
       </c>
       <c r="Q27">
-        <v>31.9</v>
+        <v>-116.3</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1891.4</v>
+        <v>1116.3</v>
       </c>
       <c r="U27">
-        <v>96.1</v>
+        <v>49.2</v>
       </c>
       <c r="V27">
-        <v>-34.9</v>
+        <v>-58.2</v>
       </c>
       <c r="W27">
-        <v>-22.1</v>
+        <v>-6.9</v>
       </c>
       <c r="X27">
-        <v>96.5</v>
+        <v>-43.1</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA27">
-        <v>-124.2</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>74.7</v>
+        <v>8.6</v>
       </c>
       <c r="D28">
-        <v>656.8</v>
+        <v>657.9</v>
       </c>
       <c r="E28">
-        <v>1442.3</v>
+        <v>683.2</v>
       </c>
       <c r="F28">
-        <v>234.4</v>
+        <v>210</v>
       </c>
       <c r="G28">
-        <v>3485.8</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="H28">
-        <v>5984.3</v>
+        <v>2730</v>
       </c>
       <c r="I28">
-        <v>433.5</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="J28">
-        <v>1592.3</v>
+        <v>440.2</v>
       </c>
       <c r="K28">
-        <v>91.3</v>
+        <v>68.8</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1541.9</v>
+        <v>732.3</v>
       </c>
       <c r="O28">
-        <v>3957.6</v>
+        <v>1637</v>
       </c>
       <c r="P28">
-        <v>1784.8</v>
+        <v>598.9</v>
       </c>
       <c r="Q28">
-        <v>17.100000000000001</v>
+        <v>14</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2026.7</v>
+        <v>1093</v>
       </c>
       <c r="U28">
-        <v>113.2</v>
+        <v>63.2</v>
       </c>
       <c r="V28">
-        <v>295</v>
+        <v>93.9</v>
       </c>
       <c r="W28">
-        <v>-22.2</v>
+        <v>-6.9</v>
       </c>
       <c r="X28">
-        <v>-246.3</v>
+        <v>-55.9</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>74.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>55.2</v>
+        <v>37.1</v>
       </c>
       <c r="D29">
-        <v>646.20000000000005</v>
+        <v>626.6</v>
       </c>
       <c r="E29">
-        <v>1457.6</v>
+        <v>613.1</v>
       </c>
       <c r="F29">
-        <v>265.89999999999998</v>
+        <v>186.4</v>
       </c>
       <c r="G29">
-        <v>3574.2</v>
+        <v>1174.2</v>
       </c>
       <c r="H29">
-        <v>6056.8</v>
+        <v>2738.2</v>
       </c>
       <c r="I29">
-        <v>437.7</v>
+        <v>296.5</v>
       </c>
       <c r="J29">
-        <v>1492.9</v>
+        <v>416.4</v>
       </c>
       <c r="K29">
-        <v>108.5</v>
+        <v>65.8</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1630.6</v>
+        <v>771.3</v>
       </c>
       <c r="O29">
-        <v>3921.6</v>
+        <v>1627.7</v>
       </c>
       <c r="P29">
-        <v>1707.1</v>
+        <v>572.1</v>
       </c>
       <c r="Q29">
-        <v>-19.399999999999999</v>
+        <v>52.7</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2135.1999999999998</v>
+        <v>1110.5</v>
       </c>
       <c r="U29">
-        <v>93.8</v>
+        <v>115.9</v>
       </c>
       <c r="V29">
-        <v>59.4</v>
+        <v>164.8</v>
       </c>
       <c r="W29">
-        <v>-22.3</v>
+        <v>-8</v>
       </c>
       <c r="X29">
-        <v>-94.5</v>
+        <v>-75.7</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>55.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>530.1</v>
+        <v>40.9</v>
       </c>
       <c r="D30">
-        <v>979.6</v>
+        <v>674.3</v>
       </c>
       <c r="E30">
-        <v>2043.5</v>
+        <v>599.70000000000005</v>
       </c>
       <c r="F30">
-        <v>405</v>
+        <v>195.6</v>
       </c>
       <c r="G30">
-        <v>3652.7</v>
+        <v>1194.0999999999999</v>
       </c>
       <c r="H30">
-        <v>9206.2999999999993</v>
+        <v>2733.4</v>
       </c>
       <c r="I30">
-        <v>714.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="J30">
-        <v>2993</v>
+        <v>419.6</v>
       </c>
       <c r="K30">
-        <v>91.4</v>
+        <v>47.9</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,120 +3216,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2209.4</v>
+        <v>751.4</v>
       </c>
       <c r="O30">
-        <v>6499.2</v>
+        <v>1610.7</v>
       </c>
       <c r="P30">
-        <v>3208.1</v>
+        <v>545.20000000000005</v>
       </c>
       <c r="Q30">
-        <v>189.2</v>
+        <v>-40.4</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="T30">
-        <v>2707.1</v>
+        <v>1122.7</v>
       </c>
       <c r="U30">
-        <v>283</v>
+        <v>75.5</v>
       </c>
       <c r="V30">
-        <v>16</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="W30">
-        <v>-22.2</v>
+        <v>-7.9</v>
       </c>
       <c r="X30">
-        <v>1457.4</v>
+        <v>-68.7</v>
       </c>
       <c r="Y30">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>530.1</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>267.2</v>
+        <v>93.9</v>
       </c>
       <c r="D31">
-        <v>1107.9000000000001</v>
+        <v>750.2</v>
       </c>
       <c r="E31">
-        <v>2399.6999999999998</v>
+        <v>759</v>
       </c>
       <c r="F31">
-        <v>532.4</v>
+        <v>251</v>
       </c>
       <c r="G31">
-        <v>4335.6000000000004</v>
+        <v>1410.4</v>
       </c>
       <c r="H31">
-        <v>10149.1</v>
+        <v>2902.5</v>
       </c>
       <c r="I31">
-        <v>914.1</v>
+        <v>333.5</v>
       </c>
       <c r="J31">
-        <v>2993.2</v>
+        <v>482.9</v>
       </c>
       <c r="K31">
-        <v>228.2</v>
+        <v>54.4</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.6</v>
+        <v>-7.4</v>
       </c>
       <c r="N31">
-        <v>2686</v>
+        <v>781.2</v>
       </c>
       <c r="O31">
-        <v>7134.4</v>
+        <v>1696.5</v>
       </c>
       <c r="P31">
-        <v>3322.1</v>
+        <v>615</v>
       </c>
       <c r="Q31">
-        <v>76.7</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3014.7</v>
+        <v>1206</v>
       </c>
       <c r="U31">
-        <v>359.7</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V31">
-        <v>-78.400000000000006</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="W31">
-        <v>-22.3</v>
+        <v>-7.9</v>
       </c>
       <c r="X31">
-        <v>113.9</v>
+        <v>16.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>267.2</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>129.69999999999999</v>
+        <v>84.4</v>
       </c>
       <c r="D32">
-        <v>1154.4000000000001</v>
+        <v>806.6</v>
       </c>
       <c r="E32">
-        <v>2194.1</v>
+        <v>754</v>
       </c>
       <c r="F32">
-        <v>528.79999999999995</v>
+        <v>270.2</v>
       </c>
       <c r="G32">
-        <v>3993</v>
+        <v>1515.5</v>
       </c>
       <c r="H32">
-        <v>9718.2000000000007</v>
+        <v>2978.7</v>
       </c>
       <c r="I32">
-        <v>947.2</v>
+        <v>370</v>
       </c>
       <c r="J32">
-        <v>2892.9</v>
+        <v>491.7</v>
       </c>
       <c r="K32">
-        <v>87.7</v>
+        <v>62.3</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2448.3000000000002</v>
+        <v>776.9</v>
       </c>
       <c r="O32">
-        <v>6692.5</v>
+        <v>1703.6</v>
       </c>
       <c r="P32">
-        <v>3067.4</v>
+        <v>554.29999999999995</v>
       </c>
       <c r="Q32">
-        <v>-34.799999999999997</v>
+        <v>52.9</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3025.7</v>
+        <v>1275.0999999999999</v>
       </c>
       <c r="U32">
-        <v>326.39999999999998</v>
+        <v>123.3</v>
       </c>
       <c r="V32">
-        <v>271.8</v>
+        <v>178.1</v>
       </c>
       <c r="W32">
-        <v>-22.3</v>
+        <v>-7.9</v>
       </c>
       <c r="X32">
-        <v>-269.10000000000002</v>
+        <v>-91.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>129.69999999999999</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>72.8</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>923.6</v>
+        <v>820.8</v>
       </c>
       <c r="E33">
-        <v>1901.9</v>
+        <v>719.7</v>
       </c>
       <c r="F33">
-        <v>396.5</v>
+        <v>241</v>
       </c>
       <c r="G33">
-        <v>3491.2</v>
+        <v>1432.9</v>
       </c>
       <c r="H33">
-        <v>9406.9</v>
+        <v>2930.4</v>
       </c>
       <c r="I33">
-        <v>784.2</v>
+        <v>364.5</v>
       </c>
       <c r="J33">
-        <v>2593.3000000000002</v>
+        <v>542.1</v>
       </c>
       <c r="K33">
-        <v>65.8</v>
+        <v>33.6</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2271.5</v>
+        <v>760.8</v>
       </c>
       <c r="O33">
-        <v>6328.6</v>
+        <v>1722.8</v>
       </c>
       <c r="P33">
-        <v>2742.7</v>
+        <v>576</v>
       </c>
       <c r="Q33">
-        <v>-163.1</v>
+        <v>-28.3</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3078.3</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="U33">
-        <v>176.5</v>
+        <v>95</v>
       </c>
       <c r="V33">
-        <v>220.6</v>
+        <v>167.7</v>
       </c>
       <c r="W33">
-        <v>-22.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="X33">
-        <v>-330.3</v>
+        <v>-40.299999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>72.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>32.4</v>
+        <v>46.3</v>
       </c>
       <c r="D34">
-        <v>1099.4000000000001</v>
+        <v>737.7</v>
       </c>
       <c r="E34">
-        <v>2143.8000000000002</v>
+        <v>687.7</v>
       </c>
       <c r="F34">
-        <v>491.7</v>
+        <v>221</v>
       </c>
       <c r="G34">
-        <v>4030.2</v>
+        <v>1432.8</v>
       </c>
       <c r="H34">
-        <v>9974.2999999999993</v>
+        <v>2993.9</v>
       </c>
       <c r="I34">
-        <v>795.5</v>
+        <v>372.3</v>
       </c>
       <c r="J34">
-        <v>2145</v>
+        <v>592.9</v>
       </c>
       <c r="K34">
-        <v>161.69999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2993.4</v>
+        <v>759.1</v>
       </c>
       <c r="O34">
-        <v>6763.9</v>
+        <v>2027.5</v>
       </c>
       <c r="P34">
-        <v>2710.2</v>
+        <v>623.6</v>
       </c>
       <c r="Q34">
-        <v>-27.4</v>
+        <v>-42.6</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7300</v>
+        <v>5000</v>
       </c>
       <c r="T34">
-        <v>3210.4</v>
+        <v>966.4</v>
       </c>
       <c r="U34">
-        <v>134.4</v>
+        <v>52.4</v>
       </c>
       <c r="V34">
-        <v>-45.6</v>
+        <v>28.2</v>
       </c>
       <c r="W34">
-        <v>-22.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="X34">
-        <v>122.2</v>
+        <v>-21.9</v>
       </c>
       <c r="Y34">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>32.4</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>215.7</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D35">
-        <v>1192.0999999999999</v>
+        <v>690.5</v>
       </c>
       <c r="E35">
-        <v>2530.1999999999998</v>
+        <v>724.8</v>
       </c>
       <c r="F35">
-        <v>544.70000000000005</v>
+        <v>238.5</v>
       </c>
       <c r="G35">
-        <v>4204.1000000000004</v>
+        <v>1480.9</v>
       </c>
       <c r="H35">
-        <v>9946</v>
+        <v>3020</v>
       </c>
       <c r="I35">
-        <v>884.5</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="J35">
-        <v>2145</v>
+        <v>617.79999999999995</v>
       </c>
       <c r="K35">
-        <v>608.20000000000005</v>
+        <v>48.5</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3337.6</v>
+        <v>722.7</v>
       </c>
       <c r="O35">
-        <v>7154.2</v>
+        <v>2012.3</v>
       </c>
       <c r="P35">
-        <v>3353.3</v>
+        <v>668.2</v>
       </c>
       <c r="Q35">
-        <v>-52.2</v>
+        <v>2.5</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2791.8</v>
+        <v>1007.7</v>
       </c>
       <c r="U35">
-        <v>109.5</v>
+        <v>54.9</v>
       </c>
       <c r="V35">
-        <v>-277.2</v>
+        <v>15.2</v>
       </c>
       <c r="W35">
-        <v>-53.2</v>
+        <v>-9.1</v>
       </c>
       <c r="X35">
-        <v>250.4</v>
+        <v>32.1</v>
       </c>
       <c r="Y35">
-        <v>175.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>215.7</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>174.5</v>
+        <v>69.3</v>
       </c>
       <c r="D36">
-        <v>1206.0999999999999</v>
+        <v>700.3</v>
       </c>
       <c r="E36">
-        <v>2384</v>
+        <v>701.5</v>
       </c>
       <c r="F36">
-        <v>550.5</v>
+        <v>223.4</v>
       </c>
       <c r="G36">
-        <v>4097</v>
+        <v>1423.7</v>
       </c>
       <c r="H36">
-        <v>9824.5</v>
+        <v>3028.5</v>
       </c>
       <c r="I36">
-        <v>785.7</v>
+        <v>266.2</v>
       </c>
       <c r="J36">
-        <v>2144.3000000000002</v>
+        <v>561.20000000000005</v>
       </c>
       <c r="K36">
-        <v>707</v>
+        <v>66.7</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3230.1</v>
+        <v>717.2</v>
       </c>
       <c r="O36">
-        <v>7029.6</v>
+        <v>1927.3</v>
       </c>
       <c r="P36">
-        <v>3476.1</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="Q36">
-        <v>-26.1</v>
+        <v>12.1</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2794.9</v>
+        <v>1101.2</v>
       </c>
       <c r="U36">
-        <v>83.4</v>
+        <v>67</v>
       </c>
       <c r="V36">
-        <v>51.7</v>
+        <v>138.6</v>
       </c>
       <c r="W36">
-        <v>-52.8</v>
+        <v>-9.1</v>
       </c>
       <c r="X36">
-        <v>-48.5</v>
+        <v>-65.2</v>
       </c>
       <c r="Y36">
-        <v>165.3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>174.5</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>90.4</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>1014.3</v>
+        <v>713.3</v>
       </c>
       <c r="E37">
-        <v>2001.1</v>
+        <v>715.4</v>
       </c>
       <c r="F37">
-        <v>432.4</v>
+        <v>205.7</v>
       </c>
       <c r="G37">
-        <v>4077.6</v>
+        <v>1435.1</v>
       </c>
       <c r="H37">
-        <v>9803.7999999999993</v>
+        <v>3045.5</v>
       </c>
       <c r="I37">
-        <v>667</v>
+        <v>262.5</v>
       </c>
       <c r="J37">
-        <v>3032.4</v>
+        <v>541.9</v>
       </c>
       <c r="K37">
-        <v>173.7</v>
+        <v>69.8</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2521.5</v>
+        <v>765.2</v>
       </c>
       <c r="O37">
-        <v>7124.5</v>
+        <v>1923.8</v>
       </c>
       <c r="P37">
-        <v>3784</v>
+        <v>613.6</v>
       </c>
       <c r="Q37">
-        <v>336.3</v>
+        <v>-7.1</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2679.3</v>
+        <v>1121.7</v>
       </c>
       <c r="U37">
-        <v>419.7</v>
+        <v>59.9</v>
       </c>
       <c r="V37">
-        <v>255.1</v>
+        <v>89.4</v>
       </c>
       <c r="W37">
-        <v>-52.3</v>
+        <v>-9.1</v>
       </c>
       <c r="X37">
-        <v>135.69999999999999</v>
+        <v>-63.4</v>
       </c>
       <c r="Y37">
-        <v>165.2</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>90.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-3.2</v>
+        <v>62.1</v>
       </c>
       <c r="D38">
-        <v>1197.3</v>
+        <v>722.1</v>
       </c>
       <c r="E38">
-        <v>2231.1999999999998</v>
+        <v>749.6</v>
       </c>
       <c r="F38">
-        <v>556</v>
+        <v>222.1</v>
       </c>
       <c r="G38">
-        <v>4074.8</v>
+        <v>1487.7</v>
       </c>
       <c r="H38">
-        <v>9872.7000000000007</v>
+        <v>3136.2</v>
       </c>
       <c r="I38">
-        <v>900.1</v>
+        <v>290.5</v>
       </c>
       <c r="J38">
-        <v>3031.1</v>
+        <v>588</v>
       </c>
       <c r="K38">
-        <v>144.9</v>
+        <v>33.4</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2723.9</v>
+        <v>709.2</v>
       </c>
       <c r="O38">
-        <v>7311.3</v>
+        <v>2003.1</v>
       </c>
       <c r="P38">
-        <v>3453.5</v>
+        <v>643.9</v>
       </c>
       <c r="Q38">
-        <v>-80.599999999999994</v>
+        <v>16.7</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>6400</v>
+        <v>4800</v>
       </c>
       <c r="T38">
-        <v>2561.4</v>
+        <v>1133.0999999999999</v>
       </c>
       <c r="U38">
-        <v>339.1</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="V38">
-        <v>458.9</v>
+        <v>58.3</v>
       </c>
       <c r="W38">
-        <v>-52</v>
+        <v>-9</v>
       </c>
       <c r="X38">
-        <v>-461.8</v>
+        <v>18.7</v>
       </c>
       <c r="Y38">
-        <v>163.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>-3.2</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>206.2</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D39">
-        <v>1250</v>
+        <v>756.5</v>
       </c>
       <c r="E39">
-        <v>2460.1</v>
+        <v>892.5</v>
       </c>
       <c r="F39">
-        <v>561.5</v>
+        <v>267</v>
       </c>
       <c r="G39">
-        <v>4472</v>
+        <v>1637.9</v>
       </c>
       <c r="H39">
-        <v>10189.200000000001</v>
+        <v>3233</v>
       </c>
       <c r="I39">
-        <v>838.4</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="J39">
-        <v>3531.8</v>
+        <v>609.9</v>
       </c>
       <c r="K39">
-        <v>186.3</v>
+        <v>31.7</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="M39">
-        <v>-0.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="N39">
-        <v>2456.5</v>
+        <v>734.5</v>
       </c>
       <c r="O39">
-        <v>7486.5</v>
+        <v>2046</v>
       </c>
       <c r="P39">
-        <v>3971.4</v>
+        <v>699.9</v>
       </c>
       <c r="Q39">
-        <v>97.1</v>
+        <v>10.1</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2702.7</v>
+        <v>1187</v>
       </c>
       <c r="U39">
-        <v>436.2</v>
+        <v>86.7</v>
       </c>
       <c r="V39">
-        <v>-328.3</v>
+        <v>-7.7</v>
       </c>
       <c r="W39">
-        <v>-57</v>
+        <v>-9.1</v>
       </c>
       <c r="X39">
-        <v>474.8</v>
+        <v>48.7</v>
       </c>
       <c r="Y39">
-        <v>156.1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>206.2</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>184.4</v>
+        <v>65.7</v>
       </c>
       <c r="D40">
-        <v>1155.3</v>
+        <v>776.8</v>
       </c>
       <c r="E40">
-        <v>2342.4</v>
+        <v>830.9</v>
       </c>
       <c r="F40">
-        <v>522.70000000000005</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="G40">
-        <v>4288.2</v>
+        <v>1658.6</v>
       </c>
       <c r="H40">
-        <v>9993.7000000000007</v>
+        <v>3219.1</v>
       </c>
       <c r="I40">
-        <v>842.2</v>
+        <v>288.8</v>
       </c>
       <c r="J40">
-        <v>3027.5</v>
+        <v>562.9</v>
       </c>
       <c r="K40">
-        <v>425.5</v>
+        <v>30.7</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2682.9</v>
+        <v>737.2</v>
       </c>
       <c r="O40">
-        <v>7142.8</v>
+        <v>2006.5</v>
       </c>
       <c r="P40">
-        <v>3716.9</v>
+        <v>638.20000000000005</v>
       </c>
       <c r="Q40">
-        <v>-93.5</v>
+        <v>75.7</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2850.9</v>
+        <v>1212.5999999999999</v>
       </c>
       <c r="U40">
-        <v>342.7</v>
+        <v>162.4</v>
       </c>
       <c r="V40">
-        <v>234.6</v>
+        <v>195</v>
       </c>
       <c r="W40">
-        <v>-57.1</v>
+        <v>-9.1</v>
       </c>
       <c r="X40">
-        <v>-299.89999999999998</v>
+        <v>-83.6</v>
       </c>
       <c r="Y40">
-        <v>152.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>184.4</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>111.4</v>
+        <v>82.9</v>
       </c>
       <c r="D41">
-        <v>1084.5999999999999</v>
+        <v>772.5</v>
       </c>
       <c r="E41">
-        <v>2137.9</v>
+        <v>813.7</v>
       </c>
       <c r="F41">
-        <v>466.4</v>
+        <v>254.7</v>
       </c>
       <c r="G41">
-        <v>4015.2</v>
+        <v>1762.4</v>
       </c>
       <c r="H41">
-        <v>9772.2000000000007</v>
+        <v>3403.8</v>
       </c>
       <c r="I41">
-        <v>757.2</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="J41">
-        <v>3028.3</v>
+        <v>535.29999999999995</v>
       </c>
       <c r="K41">
-        <v>116.2</v>
+        <v>27.5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2368.3000000000002</v>
+        <v>834.5</v>
       </c>
       <c r="O41">
-        <v>6803.8</v>
+        <v>2046.7</v>
       </c>
       <c r="P41">
-        <v>3404.8</v>
+        <v>668.2</v>
       </c>
       <c r="Q41">
-        <v>-45.6</v>
+        <v>104.9</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2968.4</v>
+        <v>1357.1</v>
       </c>
       <c r="U41">
-        <v>297.10000000000002</v>
+        <v>267.3</v>
       </c>
       <c r="V41">
-        <v>340.9</v>
+        <v>97.5</v>
       </c>
       <c r="W41">
-        <v>-57.2</v>
+        <v>-9.1</v>
       </c>
       <c r="X41">
-        <v>-361.3</v>
+        <v>48.2</v>
       </c>
       <c r="Y41">
-        <v>152.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>111.4</v>
+        <v>82.9</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-53.5</v>
+      </c>
+      <c r="D42">
+        <v>810.5</v>
+      </c>
+      <c r="E42">
+        <v>852.9</v>
+      </c>
+      <c r="F42">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="G42">
+        <v>1646.2</v>
+      </c>
+      <c r="H42">
+        <v>3319.9</v>
+      </c>
+      <c r="I42">
+        <v>389.3</v>
+      </c>
+      <c r="J42">
+        <v>503</v>
+      </c>
+      <c r="K42">
+        <v>18.5</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>963.4</v>
+      </c>
+      <c r="O42">
+        <v>2130.6999999999998</v>
+      </c>
+      <c r="P42">
+        <v>637.9</v>
+      </c>
+      <c r="Q42">
+        <v>-105.8</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4900</v>
+      </c>
+      <c r="T42">
+        <v>1189.2</v>
+      </c>
+      <c r="U42">
+        <v>161.5</v>
+      </c>
+      <c r="V42">
+        <v>69.7</v>
+      </c>
+      <c r="W42">
+        <v>-9.1</v>
+      </c>
+      <c r="X42">
+        <v>-129.9</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>-53.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>94</v>
+      </c>
+      <c r="D43">
+        <v>795</v>
+      </c>
+      <c r="E43">
+        <v>973.9</v>
+      </c>
+      <c r="F43">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="G43">
+        <v>1717.5</v>
+      </c>
+      <c r="H43">
+        <v>3416.2</v>
+      </c>
+      <c r="I43">
+        <v>351.2</v>
+      </c>
+      <c r="J43">
+        <v>533.9</v>
+      </c>
+      <c r="K43">
+        <v>9.4</v>
+      </c>
+      <c r="L43">
+        <v>-9.5</v>
+      </c>
+      <c r="M43">
+        <v>-7.6</v>
+      </c>
+      <c r="N43">
+        <v>906.3</v>
+      </c>
+      <c r="O43">
+        <v>2098.8000000000002</v>
+      </c>
+      <c r="P43">
+        <v>663</v>
+      </c>
+      <c r="Q43">
+        <v>-75.5</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1317.4</v>
+      </c>
+      <c r="U43">
+        <v>86</v>
+      </c>
+      <c r="V43">
+        <v>-59.6</v>
+      </c>
+      <c r="W43">
+        <v>-9</v>
+      </c>
+      <c r="X43">
+        <v>16</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>107.2</v>
+      </c>
+      <c r="D44">
+        <v>812.2</v>
+      </c>
+      <c r="E44">
+        <v>858.4</v>
+      </c>
+      <c r="F44">
+        <v>298.8</v>
+      </c>
+      <c r="G44">
+        <v>1753.1</v>
+      </c>
+      <c r="H44">
+        <v>3466.2</v>
+      </c>
+      <c r="I44">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="J44">
+        <v>485.5</v>
+      </c>
+      <c r="K44">
+        <v>27.2</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>925.3</v>
+      </c>
+      <c r="O44">
+        <v>2044.9</v>
+      </c>
+      <c r="P44">
+        <v>622.9</v>
+      </c>
+      <c r="Q44">
+        <v>100.6</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1421.3</v>
+      </c>
+      <c r="U44">
+        <v>186.6</v>
+      </c>
+      <c r="V44">
+        <v>203.4</v>
+      </c>
+      <c r="W44">
+        <v>-10.8</v>
+      </c>
+      <c r="X44">
+        <v>-57.8</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>86.8</v>
+      </c>
+      <c r="D45">
+        <v>862.1</v>
+      </c>
+      <c r="E45">
+        <v>854.3</v>
+      </c>
+      <c r="F45">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="G45">
+        <v>1690.3</v>
+      </c>
+      <c r="H45">
+        <v>3389.6</v>
+      </c>
+      <c r="I45">
+        <v>345.6</v>
+      </c>
+      <c r="J45">
+        <v>493.6</v>
+      </c>
+      <c r="K45">
+        <v>30.1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>909.5</v>
+      </c>
+      <c r="O45">
+        <v>2011.3</v>
+      </c>
+      <c r="P45">
+        <v>571.1</v>
+      </c>
+      <c r="Q45">
+        <v>-77.2</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1378.3</v>
+      </c>
+      <c r="U45">
+        <v>109.4</v>
+      </c>
+      <c r="V45">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="W45">
+        <v>-10.8</v>
+      </c>
+      <c r="X45">
+        <v>-172.2</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D46">
+        <v>908.6</v>
+      </c>
+      <c r="E46">
+        <v>931.3</v>
+      </c>
+      <c r="F46">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="G46">
+        <v>1869.4</v>
+      </c>
+      <c r="H46">
+        <v>3743.5</v>
+      </c>
+      <c r="I46">
+        <v>382.1</v>
+      </c>
+      <c r="J46">
+        <v>779.1</v>
+      </c>
+      <c r="K46">
+        <v>27</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>919.9</v>
+      </c>
+      <c r="O46">
+        <v>2439.4</v>
+      </c>
+      <c r="P46">
+        <v>825.6</v>
+      </c>
+      <c r="Q46">
         <v>49.5</v>
       </c>
-      <c r="D42">
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5000</v>
+      </c>
+      <c r="T46">
+        <v>1304.0999999999999</v>
+      </c>
+      <c r="U46">
+        <v>158.9</v>
+      </c>
+      <c r="V46">
+        <v>83.3</v>
+      </c>
+      <c r="W46">
+        <v>-10.6</v>
+      </c>
+      <c r="X46">
+        <v>188.7</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-3.2</v>
+      </c>
+      <c r="AA46">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>119.1</v>
+      </c>
+      <c r="D47">
+        <v>940.7</v>
+      </c>
+      <c r="E47">
+        <v>1051.0999999999999</v>
+      </c>
+      <c r="F47">
+        <v>350.7</v>
+      </c>
+      <c r="G47">
+        <v>1943.3</v>
+      </c>
+      <c r="H47">
+        <v>3851.6</v>
+      </c>
+      <c r="I47">
+        <v>376.1</v>
+      </c>
+      <c r="J47">
+        <v>910.4</v>
+      </c>
+      <c r="K47">
+        <v>22.8</v>
+      </c>
+      <c r="L47">
+        <v>-4.2</v>
+      </c>
+      <c r="M47">
+        <v>-7</v>
+      </c>
+      <c r="N47">
+        <v>917.2</v>
+      </c>
+      <c r="O47">
+        <v>2552</v>
+      </c>
+      <c r="P47">
+        <v>946.5</v>
+      </c>
+      <c r="Q47">
+        <v>-88.1</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="U47">
+        <v>70.8</v>
+      </c>
+      <c r="V47">
+        <v>12.4</v>
+      </c>
+      <c r="W47">
+        <v>-10.5</v>
+      </c>
+      <c r="X47">
+        <v>-33</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-3</v>
+      </c>
+      <c r="AA47">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>104.9</v>
+      </c>
+      <c r="D48">
+        <v>731.8</v>
+      </c>
+      <c r="E48">
+        <v>993.7</v>
+      </c>
+      <c r="F48">
+        <v>304.7</v>
+      </c>
+      <c r="G48">
+        <v>1952.7</v>
+      </c>
+      <c r="H48">
+        <v>3907.6</v>
+      </c>
+      <c r="I48">
+        <v>366.4</v>
+      </c>
+      <c r="J48">
+        <v>810</v>
+      </c>
+      <c r="K48">
+        <v>41.6</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>996.4</v>
+      </c>
+      <c r="O48">
+        <v>2521.1</v>
+      </c>
+      <c r="P48">
+        <v>856.5</v>
+      </c>
+      <c r="Q48">
+        <v>4.7</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1386.5</v>
+      </c>
+      <c r="U48">
+        <v>75.5</v>
+      </c>
+      <c r="V48">
+        <v>234.6</v>
+      </c>
+      <c r="W48">
+        <v>-12.4</v>
+      </c>
+      <c r="X48">
+        <v>-97.9</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-3.8</v>
+      </c>
+      <c r="AA48">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>821.9</v>
+      </c>
+      <c r="E49">
+        <v>1009.2</v>
+      </c>
+      <c r="F49">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G49">
+        <v>2025.5</v>
+      </c>
+      <c r="H49">
+        <v>4065.9</v>
+      </c>
+      <c r="I49">
+        <v>384.5</v>
+      </c>
+      <c r="J49">
+        <v>807.9</v>
+      </c>
+      <c r="K49">
+        <v>58.6</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1087.3</v>
+      </c>
+      <c r="O49">
+        <v>2577.8000000000002</v>
+      </c>
+      <c r="P49">
+        <v>869.4</v>
+      </c>
+      <c r="Q49">
+        <v>8.9</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1488.1</v>
+      </c>
+      <c r="U49">
+        <v>84.4</v>
+      </c>
+      <c r="V49">
+        <v>85.6</v>
+      </c>
+      <c r="W49">
+        <v>-12.5</v>
+      </c>
+      <c r="X49">
+        <v>-6.2</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-2.9</v>
+      </c>
+      <c r="AA49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>102.2</v>
+      </c>
+      <c r="D50">
+        <v>915.5</v>
+      </c>
+      <c r="E50">
+        <v>1073.7</v>
+      </c>
+      <c r="F50">
+        <v>321.5</v>
+      </c>
+      <c r="G50">
+        <v>2181.9</v>
+      </c>
+      <c r="H50">
+        <v>4373.8999999999996</v>
+      </c>
+      <c r="I50">
+        <v>404.2</v>
+      </c>
+      <c r="J50">
+        <v>908.8</v>
+      </c>
+      <c r="K50">
+        <v>49.9</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1135.5</v>
+      </c>
+      <c r="O50">
+        <v>2819.1</v>
+      </c>
+      <c r="P50">
+        <v>964.4</v>
+      </c>
+      <c r="Q50">
+        <v>-7.3</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5700</v>
+      </c>
+      <c r="T50">
+        <v>1554.8</v>
+      </c>
+      <c r="U50">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="V50">
+        <v>27.1</v>
+      </c>
+      <c r="W50">
+        <v>-12.4</v>
+      </c>
+      <c r="X50">
+        <v>88.9</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-4.2</v>
+      </c>
+      <c r="AA50">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>130.9</v>
+      </c>
+      <c r="D51">
+        <v>910.7</v>
+      </c>
+      <c r="E51">
+        <v>1223.0999999999999</v>
+      </c>
+      <c r="F51">
+        <v>353.6</v>
+      </c>
+      <c r="G51">
+        <v>2285.3000000000002</v>
+      </c>
+      <c r="H51">
+        <v>4448</v>
+      </c>
+      <c r="I51">
+        <v>361.9</v>
+      </c>
+      <c r="J51">
+        <v>1233.9000000000001</v>
+      </c>
+      <c r="K51">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L51">
+        <v>-13.4</v>
+      </c>
+      <c r="M51">
+        <v>-0.3</v>
+      </c>
+      <c r="N51">
+        <v>987.7</v>
+      </c>
+      <c r="O51">
+        <v>2964.8</v>
+      </c>
+      <c r="P51">
+        <v>1277.0999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>5.5</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1483.2</v>
+      </c>
+      <c r="U51">
+        <v>82.6</v>
+      </c>
+      <c r="V51">
+        <v>-44.5</v>
+      </c>
+      <c r="W51">
+        <v>-18.7</v>
+      </c>
+      <c r="X51">
+        <v>105.3</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-3.2</v>
+      </c>
+      <c r="AA51">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>118</v>
+      </c>
+      <c r="D52">
+        <v>876</v>
+      </c>
+      <c r="E52">
+        <v>1092.0999999999999</v>
+      </c>
+      <c r="F52">
+        <v>327.5</v>
+      </c>
+      <c r="G52">
+        <v>2182.6999999999998</v>
+      </c>
+      <c r="H52">
+        <v>4349.7</v>
+      </c>
+      <c r="I52">
+        <v>344.8</v>
+      </c>
+      <c r="J52">
+        <v>762.4</v>
+      </c>
+      <c r="K52">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1268.9000000000001</v>
+      </c>
+      <c r="O52">
+        <v>2751.1</v>
+      </c>
+      <c r="P52">
+        <v>1070.5999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-5.2</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1598.6</v>
+      </c>
+      <c r="U52">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="V52">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="W52">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="X52">
+        <v>-224.4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1.3</v>
+      </c>
+      <c r="AA52">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D53">
+        <v>957.4</v>
+      </c>
+      <c r="E53">
+        <v>1179.5999999999999</v>
+      </c>
+      <c r="F53">
+        <v>306.5</v>
+      </c>
+      <c r="G53">
+        <v>2610.6999999999998</v>
+      </c>
+      <c r="H53">
+        <v>4930.8</v>
+      </c>
+      <c r="I53">
+        <v>388.9</v>
+      </c>
+      <c r="J53">
+        <v>771.8</v>
+      </c>
+      <c r="K53">
+        <v>919.1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2066.5</v>
+      </c>
+      <c r="O53">
+        <v>3557.2</v>
+      </c>
+      <c r="P53">
+        <v>1714.2</v>
+      </c>
+      <c r="Q53">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1373.6</v>
+      </c>
+      <c r="U53">
+        <v>109.6</v>
+      </c>
+      <c r="V53">
+        <v>116.1</v>
+      </c>
+      <c r="W53">
+        <v>-18.5</v>
+      </c>
+      <c r="X53">
+        <v>372.8</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1.7</v>
+      </c>
+      <c r="AA53">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>27.1</v>
+      </c>
+      <c r="D54">
+        <v>1130.7</v>
+      </c>
+      <c r="E54">
+        <v>1484.3</v>
+      </c>
+      <c r="F54">
+        <v>358</v>
+      </c>
+      <c r="G54">
+        <v>2945</v>
+      </c>
+      <c r="H54">
+        <v>5235.2</v>
+      </c>
+      <c r="I54">
+        <v>475.2</v>
+      </c>
+      <c r="J54">
+        <v>1154.0999999999999</v>
+      </c>
+      <c r="K54">
+        <v>663.1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1986.7</v>
+      </c>
+      <c r="O54">
+        <v>3663.1</v>
+      </c>
+      <c r="P54">
+        <v>1884.3</v>
+      </c>
+      <c r="Q54">
+        <v>13.6</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5600</v>
+      </c>
+      <c r="T54">
+        <v>1572.1</v>
+      </c>
+      <c r="U54">
+        <v>123.2</v>
+      </c>
+      <c r="V54">
+        <v>-20.5</v>
+      </c>
+      <c r="W54">
+        <v>-18</v>
+      </c>
+      <c r="X54">
+        <v>117.5</v>
+      </c>
+      <c r="Y54">
+        <v>32.4</v>
+      </c>
+      <c r="Z54">
+        <v>-0.2</v>
+      </c>
+      <c r="AA54">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D55">
+        <v>756.9</v>
+      </c>
+      <c r="E55">
+        <v>1568.3</v>
+      </c>
+      <c r="F55">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="G55">
+        <v>2752.5</v>
+      </c>
+      <c r="H55">
+        <v>5090.7</v>
+      </c>
+      <c r="I55">
+        <v>380.2</v>
+      </c>
+      <c r="J55">
+        <v>1154</v>
+      </c>
+      <c r="K55">
+        <v>623.70000000000005</v>
+      </c>
+      <c r="L55">
+        <v>-39.6</v>
+      </c>
+      <c r="M55">
+        <v>-0.7</v>
+      </c>
+      <c r="N55">
+        <v>1726.7</v>
+      </c>
+      <c r="O55">
+        <v>3403.3</v>
+      </c>
+      <c r="P55">
+        <v>1812.5</v>
+      </c>
+      <c r="Q55">
+        <v>-30.7</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1687.4</v>
+      </c>
+      <c r="U55">
+        <v>92.5</v>
+      </c>
+      <c r="V55">
+        <v>-96.8</v>
+      </c>
+      <c r="W55">
+        <v>-18</v>
+      </c>
+      <c r="X55">
+        <v>-56.7</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>109.1</v>
+      </c>
+      <c r="D56">
+        <v>794.9</v>
+      </c>
+      <c r="E56">
+        <v>1500</v>
+      </c>
+      <c r="F56">
+        <v>317.2</v>
+      </c>
+      <c r="G56">
+        <v>2752</v>
+      </c>
+      <c r="H56">
+        <v>5127.3</v>
+      </c>
+      <c r="I56">
+        <v>393.3</v>
+      </c>
+      <c r="J56">
+        <v>1153.7</v>
+      </c>
+      <c r="K56">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1692.9</v>
+      </c>
+      <c r="O56">
+        <v>3358.9</v>
+      </c>
+      <c r="P56">
+        <v>1697.9</v>
+      </c>
+      <c r="Q56">
+        <v>21.9</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1768.4</v>
+      </c>
+      <c r="U56">
+        <v>114.4</v>
+      </c>
+      <c r="V56">
+        <v>211.4</v>
+      </c>
+      <c r="W56">
+        <v>-20</v>
+      </c>
+      <c r="X56">
+        <v>-141.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>56.3</v>
+      </c>
+      <c r="D57">
+        <v>819.1</v>
+      </c>
+      <c r="E57">
+        <v>1572.6</v>
+      </c>
+      <c r="F57">
+        <v>283.5</v>
+      </c>
+      <c r="G57">
+        <v>2857.3</v>
+      </c>
+      <c r="H57">
+        <v>5251.1</v>
+      </c>
+      <c r="I57">
+        <v>440</v>
+      </c>
+      <c r="J57">
+        <v>1151.9000000000001</v>
+      </c>
+      <c r="K57">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1741.5</v>
+      </c>
+      <c r="O57">
+        <v>3466.8</v>
+      </c>
+      <c r="P57">
+        <v>1732.3</v>
+      </c>
+      <c r="Q57">
+        <v>9.9</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1784.3</v>
+      </c>
+      <c r="U57">
+        <v>124.3</v>
+      </c>
+      <c r="V57">
+        <v>87.1</v>
+      </c>
+      <c r="W57">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X57">
+        <v>-1.4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>76.5</v>
+      </c>
+      <c r="D58">
+        <v>887.8</v>
+      </c>
+      <c r="E58">
+        <v>1602.5</v>
+      </c>
+      <c r="F58">
+        <v>318.3</v>
+      </c>
+      <c r="G58">
+        <v>2934.4</v>
+      </c>
+      <c r="H58">
+        <v>5326</v>
+      </c>
+      <c r="I58">
+        <v>378.3</v>
+      </c>
+      <c r="J58">
+        <v>1138.9000000000001</v>
+      </c>
+      <c r="K58">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1910.4</v>
+      </c>
+      <c r="O58">
+        <v>3762</v>
+      </c>
+      <c r="P58">
+        <v>1697.7</v>
+      </c>
+      <c r="Q58">
+        <v>-14.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6000</v>
+      </c>
+      <c r="T58">
+        <v>1564</v>
+      </c>
+      <c r="U58">
+        <v>109.5</v>
+      </c>
+      <c r="V58">
+        <v>172</v>
+      </c>
+      <c r="W58">
+        <v>-20</v>
+      </c>
+      <c r="X58">
+        <v>-150.30000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>33.6</v>
+      </c>
+      <c r="Z58">
+        <v>27.5</v>
+      </c>
+      <c r="AA58">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-46.8</v>
+      </c>
+      <c r="D59">
+        <v>659.4</v>
+      </c>
+      <c r="E59">
+        <v>1537.4</v>
+      </c>
+      <c r="F59">
+        <v>250.7</v>
+      </c>
+      <c r="G59">
+        <v>3329.6</v>
+      </c>
+      <c r="H59">
+        <v>5311.7</v>
+      </c>
+      <c r="I59">
+        <v>316.5</v>
+      </c>
+      <c r="J59">
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="K59">
+        <v>905.6</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.4</v>
+      </c>
+      <c r="N59">
+        <v>2015.6</v>
+      </c>
+      <c r="O59">
+        <v>3842.3</v>
+      </c>
+      <c r="P59">
+        <v>2058.1999999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-4.3</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1469.4</v>
+      </c>
+      <c r="U59">
+        <v>105.2</v>
+      </c>
+      <c r="V59">
+        <v>-297.2</v>
+      </c>
+      <c r="W59">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X59">
+        <v>364.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-46.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>742.3</v>
+      </c>
+      <c r="D60">
+        <v>887.1</v>
+      </c>
+      <c r="E60">
+        <v>1865.5</v>
+      </c>
+      <c r="F60">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="G60">
+        <v>3805.7</v>
+      </c>
+      <c r="H60">
+        <v>7075.2</v>
+      </c>
+      <c r="I60">
+        <v>578.4</v>
+      </c>
+      <c r="J60">
+        <v>2050.9</v>
+      </c>
+      <c r="K60">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1980.6</v>
+      </c>
+      <c r="O60">
+        <v>4866.8999999999996</v>
+      </c>
+      <c r="P60">
+        <v>2319.1999999999998</v>
+      </c>
+      <c r="Q60">
+        <v>372.3</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2208.3000000000002</v>
+      </c>
+      <c r="U60">
+        <v>477.5</v>
+      </c>
+      <c r="V60">
+        <v>124.6</v>
+      </c>
+      <c r="W60">
+        <v>-22.1</v>
+      </c>
+      <c r="X60">
+        <v>-170.9</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>742.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-2.4</v>
+      </c>
+      <c r="D61">
+        <v>830.7</v>
+      </c>
+      <c r="E61">
+        <v>1689.6</v>
+      </c>
+      <c r="F61">
+        <v>249.1</v>
+      </c>
+      <c r="G61">
+        <v>3238.1</v>
+      </c>
+      <c r="H61">
+        <v>6447</v>
+      </c>
+      <c r="I61">
+        <v>484.2</v>
+      </c>
+      <c r="J61">
+        <v>2048.5</v>
+      </c>
+      <c r="K61">
+        <v>119.8</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1455</v>
+      </c>
+      <c r="O61">
+        <v>4292.3999999999996</v>
+      </c>
+      <c r="P61">
+        <v>2169.6999999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-303.8</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2154.6</v>
+      </c>
+      <c r="U61">
+        <v>173.7</v>
+      </c>
+      <c r="V61">
+        <v>-137.9</v>
+      </c>
+      <c r="W61">
+        <v>-22.1</v>
+      </c>
+      <c r="X61">
+        <v>-165.9</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>34.5</v>
+      </c>
+      <c r="AA61">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-204.1</v>
+      </c>
+      <c r="D62">
+        <v>899.3</v>
+      </c>
+      <c r="E62">
+        <v>1851.4</v>
+      </c>
+      <c r="F62">
+        <v>308.3</v>
+      </c>
+      <c r="G62">
+        <v>2971.9</v>
+      </c>
+      <c r="H62">
+        <v>6325.9</v>
+      </c>
+      <c r="I62">
+        <v>403.6</v>
+      </c>
+      <c r="J62">
+        <v>2036.3</v>
+      </c>
+      <c r="K62">
+        <v>111.1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1453.3</v>
+      </c>
+      <c r="O62">
+        <v>4417.6000000000004</v>
+      </c>
+      <c r="P62">
+        <v>2183.1999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>-95.1</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6000</v>
+      </c>
+      <c r="T62">
+        <v>1908.3</v>
+      </c>
+      <c r="U62">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="V62">
+        <v>-47.2</v>
+      </c>
+      <c r="W62">
+        <v>-22.1</v>
+      </c>
+      <c r="X62">
+        <v>-44.7</v>
+      </c>
+      <c r="Y62">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Z62">
+        <v>31.9</v>
+      </c>
+      <c r="AA62">
+        <v>-204.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>48.3</v>
+      </c>
+      <c r="D63">
+        <v>606.4</v>
+      </c>
+      <c r="E63">
+        <v>1769.2</v>
+      </c>
+      <c r="F63">
+        <v>216</v>
+      </c>
+      <c r="G63">
+        <v>2955.2</v>
+      </c>
+      <c r="H63">
+        <v>6390.4</v>
+      </c>
+      <c r="I63">
+        <v>516.4</v>
+      </c>
+      <c r="J63">
+        <v>1986.2</v>
+      </c>
+      <c r="K63">
+        <v>112.4</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-50.3</v>
+      </c>
+      <c r="N63">
+        <v>1451.3</v>
+      </c>
+      <c r="O63">
+        <v>4387.1000000000004</v>
+      </c>
+      <c r="P63">
+        <v>2100.4</v>
+      </c>
+      <c r="Q63">
+        <v>-14.3</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2003.3</v>
+      </c>
+      <c r="U63">
+        <v>64.3</v>
+      </c>
+      <c r="V63">
+        <v>100</v>
+      </c>
+      <c r="W63">
+        <v>-22.1</v>
+      </c>
+      <c r="X63">
+        <v>-71</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>65.2</v>
+      </c>
+      <c r="D64">
+        <v>615.29999999999995</v>
+      </c>
+      <c r="E64">
+        <v>1627.6</v>
+      </c>
+      <c r="F64">
+        <v>235.4</v>
+      </c>
+      <c r="G64">
+        <v>2899.1</v>
+      </c>
+      <c r="H64">
+        <v>6282.2</v>
+      </c>
+      <c r="I64">
+        <v>440.4</v>
+      </c>
+      <c r="J64">
+        <v>1988.9</v>
+      </c>
+      <c r="K64">
+        <v>50.8</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1354.1</v>
+      </c>
+      <c r="O64">
+        <v>4240.3</v>
+      </c>
+      <c r="P64">
+        <v>2042.1</v>
+      </c>
+      <c r="Q64">
+        <v>29.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2041.9</v>
+      </c>
+      <c r="U64">
+        <v>93.6</v>
+      </c>
+      <c r="V64">
+        <v>124.5</v>
+      </c>
+      <c r="W64">
+        <v>-22.2</v>
+      </c>
+      <c r="X64">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>79.7</v>
+      </c>
+      <c r="D65">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="E65">
+        <v>1603.4</v>
+      </c>
+      <c r="F65">
+        <v>214.6</v>
+      </c>
+      <c r="G65">
+        <v>2804.1</v>
+      </c>
+      <c r="H65">
+        <v>6209.8</v>
+      </c>
+      <c r="I65">
+        <v>371.6</v>
+      </c>
+      <c r="J65">
+        <v>1913.3</v>
+      </c>
+      <c r="K65">
+        <v>60.8</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1308.8</v>
+      </c>
+      <c r="O65">
+        <v>4089.1</v>
+      </c>
+      <c r="P65">
+        <v>1976.5</v>
+      </c>
+      <c r="Q65">
+        <v>37.1</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2120.6999999999998</v>
+      </c>
+      <c r="U65">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="V65">
+        <v>163.6</v>
+      </c>
+      <c r="W65">
+        <v>-22.1</v>
+      </c>
+      <c r="X65">
+        <v>-89.3</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>15.9</v>
+      </c>
+      <c r="D66">
+        <v>688.4</v>
+      </c>
+      <c r="E66">
+        <v>1692.5</v>
+      </c>
+      <c r="F66">
+        <v>265.2</v>
+      </c>
+      <c r="G66">
+        <v>2849.2</v>
+      </c>
+      <c r="H66">
+        <v>6139.3</v>
+      </c>
+      <c r="I66">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="J66">
+        <v>1798.8</v>
+      </c>
+      <c r="K66">
+        <v>91.8</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1438.2</v>
+      </c>
+      <c r="O66">
+        <v>4146.3</v>
+      </c>
+      <c r="P66">
+        <v>1921</v>
+      </c>
+      <c r="Q66">
+        <v>-66.5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>5900</v>
+      </c>
+      <c r="T66">
+        <v>1993</v>
+      </c>
+      <c r="U66">
+        <v>64.2</v>
+      </c>
+      <c r="V66">
+        <v>109.7</v>
+      </c>
+      <c r="W66">
+        <v>-22.2</v>
+      </c>
+      <c r="X66">
+        <v>-136.6</v>
+      </c>
+      <c r="Y66">
+        <v>28</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-124.2</v>
+      </c>
+      <c r="D67">
+        <v>596</v>
+      </c>
+      <c r="E67">
+        <v>1630.6</v>
+      </c>
+      <c r="F67">
+        <v>216.2</v>
+      </c>
+      <c r="G67">
+        <v>3554.2</v>
+      </c>
+      <c r="H67">
+        <v>6036.3</v>
+      </c>
+      <c r="I67">
+        <v>390.9</v>
+      </c>
+      <c r="J67">
+        <v>1790.4</v>
+      </c>
+      <c r="K67">
+        <v>214.9</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.7</v>
+      </c>
+      <c r="N67">
+        <v>1488.8</v>
+      </c>
+      <c r="O67">
+        <v>4144.8999999999996</v>
+      </c>
+      <c r="P67">
+        <v>2007.7</v>
+      </c>
+      <c r="Q67">
+        <v>31.9</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1891.4</v>
+      </c>
+      <c r="U67">
+        <v>96.1</v>
+      </c>
+      <c r="V67">
+        <v>-34.9</v>
+      </c>
+      <c r="W67">
+        <v>-22.1</v>
+      </c>
+      <c r="X67">
+        <v>96.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>-124.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>74.7</v>
+      </c>
+      <c r="D68">
+        <v>656.8</v>
+      </c>
+      <c r="E68">
+        <v>1442.3</v>
+      </c>
+      <c r="F68">
+        <v>234.4</v>
+      </c>
+      <c r="G68">
+        <v>3485.8</v>
+      </c>
+      <c r="H68">
+        <v>5984.3</v>
+      </c>
+      <c r="I68">
+        <v>433.5</v>
+      </c>
+      <c r="J68">
+        <v>1592.3</v>
+      </c>
+      <c r="K68">
+        <v>91.3</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1541.9</v>
+      </c>
+      <c r="O68">
+        <v>3957.6</v>
+      </c>
+      <c r="P68">
+        <v>1784.8</v>
+      </c>
+      <c r="Q68">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2026.7</v>
+      </c>
+      <c r="U68">
+        <v>113.2</v>
+      </c>
+      <c r="V68">
+        <v>295</v>
+      </c>
+      <c r="W68">
+        <v>-22.2</v>
+      </c>
+      <c r="X68">
+        <v>-246.3</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>55.2</v>
+      </c>
+      <c r="D69">
+        <v>646.20000000000005</v>
+      </c>
+      <c r="E69">
+        <v>1457.6</v>
+      </c>
+      <c r="F69">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="G69">
+        <v>3574.2</v>
+      </c>
+      <c r="H69">
+        <v>6056.8</v>
+      </c>
+      <c r="I69">
+        <v>437.7</v>
+      </c>
+      <c r="J69">
+        <v>1492.9</v>
+      </c>
+      <c r="K69">
+        <v>108.5</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1630.6</v>
+      </c>
+      <c r="O69">
+        <v>3921.6</v>
+      </c>
+      <c r="P69">
+        <v>1707.1</v>
+      </c>
+      <c r="Q69">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2135.1999999999998</v>
+      </c>
+      <c r="U69">
+        <v>93.8</v>
+      </c>
+      <c r="V69">
+        <v>59.4</v>
+      </c>
+      <c r="W69">
+        <v>-22.3</v>
+      </c>
+      <c r="X69">
+        <v>-94.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>530.1</v>
+      </c>
+      <c r="D70">
+        <v>979.6</v>
+      </c>
+      <c r="E70">
+        <v>2043.5</v>
+      </c>
+      <c r="F70">
+        <v>405</v>
+      </c>
+      <c r="G70">
+        <v>3652.7</v>
+      </c>
+      <c r="H70">
+        <v>9206.2999999999993</v>
+      </c>
+      <c r="I70">
+        <v>714.2</v>
+      </c>
+      <c r="J70">
+        <v>2993</v>
+      </c>
+      <c r="K70">
+        <v>91.4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2209.4</v>
+      </c>
+      <c r="O70">
+        <v>6499.2</v>
+      </c>
+      <c r="P70">
+        <v>3208.1</v>
+      </c>
+      <c r="Q70">
+        <v>189.2</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7000</v>
+      </c>
+      <c r="T70">
+        <v>2707.1</v>
+      </c>
+      <c r="U70">
+        <v>283</v>
+      </c>
+      <c r="V70">
+        <v>16</v>
+      </c>
+      <c r="W70">
+        <v>-22.2</v>
+      </c>
+      <c r="X70">
+        <v>1457.4</v>
+      </c>
+      <c r="Y70">
+        <v>22.5</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>267.2</v>
+      </c>
+      <c r="D71">
+        <v>1107.9000000000001</v>
+      </c>
+      <c r="E71">
+        <v>2399.6999999999998</v>
+      </c>
+      <c r="F71">
+        <v>532.4</v>
+      </c>
+      <c r="G71">
+        <v>4335.6000000000004</v>
+      </c>
+      <c r="H71">
+        <v>10149.1</v>
+      </c>
+      <c r="I71">
+        <v>914.1</v>
+      </c>
+      <c r="J71">
+        <v>2993.2</v>
+      </c>
+      <c r="K71">
+        <v>228.2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.6</v>
+      </c>
+      <c r="N71">
+        <v>2686</v>
+      </c>
+      <c r="O71">
+        <v>7134.4</v>
+      </c>
+      <c r="P71">
+        <v>3322.1</v>
+      </c>
+      <c r="Q71">
+        <v>76.7</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3014.7</v>
+      </c>
+      <c r="U71">
+        <v>359.7</v>
+      </c>
+      <c r="V71">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="W71">
+        <v>-22.3</v>
+      </c>
+      <c r="X71">
+        <v>113.9</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>267.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="D72">
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="E72">
+        <v>2194.1</v>
+      </c>
+      <c r="F72">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="G72">
+        <v>3993</v>
+      </c>
+      <c r="H72">
+        <v>9718.2000000000007</v>
+      </c>
+      <c r="I72">
+        <v>947.2</v>
+      </c>
+      <c r="J72">
+        <v>2892.9</v>
+      </c>
+      <c r="K72">
+        <v>87.7</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2448.3000000000002</v>
+      </c>
+      <c r="O72">
+        <v>6692.5</v>
+      </c>
+      <c r="P72">
+        <v>3067.4</v>
+      </c>
+      <c r="Q72">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3025.7</v>
+      </c>
+      <c r="U72">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="V72">
+        <v>271.8</v>
+      </c>
+      <c r="W72">
+        <v>-22.3</v>
+      </c>
+      <c r="X72">
+        <v>-269.10000000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>72.8</v>
+      </c>
+      <c r="D73">
+        <v>923.6</v>
+      </c>
+      <c r="E73">
+        <v>1901.9</v>
+      </c>
+      <c r="F73">
+        <v>396.5</v>
+      </c>
+      <c r="G73">
+        <v>3491.2</v>
+      </c>
+      <c r="H73">
+        <v>9406.9</v>
+      </c>
+      <c r="I73">
+        <v>784.2</v>
+      </c>
+      <c r="J73">
+        <v>2593.3000000000002</v>
+      </c>
+      <c r="K73">
+        <v>65.8</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2271.5</v>
+      </c>
+      <c r="O73">
+        <v>6328.6</v>
+      </c>
+      <c r="P73">
+        <v>2742.7</v>
+      </c>
+      <c r="Q73">
+        <v>-163.1</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3078.3</v>
+      </c>
+      <c r="U73">
+        <v>176.5</v>
+      </c>
+      <c r="V73">
+        <v>220.6</v>
+      </c>
+      <c r="W73">
+        <v>-22.3</v>
+      </c>
+      <c r="X73">
+        <v>-330.3</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>32.4</v>
+      </c>
+      <c r="D74">
+        <v>1099.4000000000001</v>
+      </c>
+      <c r="E74">
+        <v>2143.8000000000002</v>
+      </c>
+      <c r="F74">
+        <v>491.7</v>
+      </c>
+      <c r="G74">
+        <v>4030.2</v>
+      </c>
+      <c r="H74">
+        <v>9974.2999999999993</v>
+      </c>
+      <c r="I74">
+        <v>795.5</v>
+      </c>
+      <c r="J74">
+        <v>2145</v>
+      </c>
+      <c r="K74">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2993.4</v>
+      </c>
+      <c r="O74">
+        <v>6763.9</v>
+      </c>
+      <c r="P74">
+        <v>2710.2</v>
+      </c>
+      <c r="Q74">
+        <v>-27.4</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7300</v>
+      </c>
+      <c r="T74">
+        <v>3210.4</v>
+      </c>
+      <c r="U74">
+        <v>134.4</v>
+      </c>
+      <c r="V74">
+        <v>-45.6</v>
+      </c>
+      <c r="W74">
+        <v>-22.3</v>
+      </c>
+      <c r="X74">
+        <v>122.2</v>
+      </c>
+      <c r="Y74">
+        <v>17.3</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>215.7</v>
+      </c>
+      <c r="D75">
+        <v>1192.0999999999999</v>
+      </c>
+      <c r="E75">
+        <v>2530.1999999999998</v>
+      </c>
+      <c r="F75">
+        <v>544.70000000000005</v>
+      </c>
+      <c r="G75">
+        <v>4204.1000000000004</v>
+      </c>
+      <c r="H75">
+        <v>9946</v>
+      </c>
+      <c r="I75">
+        <v>884.5</v>
+      </c>
+      <c r="J75">
+        <v>2145</v>
+      </c>
+      <c r="K75">
+        <v>608.20000000000005</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.5</v>
+      </c>
+      <c r="N75">
+        <v>3337.6</v>
+      </c>
+      <c r="O75">
+        <v>7154.2</v>
+      </c>
+      <c r="P75">
+        <v>3353.3</v>
+      </c>
+      <c r="Q75">
+        <v>-52.2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2791.8</v>
+      </c>
+      <c r="U75">
+        <v>109.5</v>
+      </c>
+      <c r="V75">
+        <v>-277.2</v>
+      </c>
+      <c r="W75">
+        <v>-53.2</v>
+      </c>
+      <c r="X75">
+        <v>250.4</v>
+      </c>
+      <c r="Y75">
+        <v>175.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>215.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>174.5</v>
+      </c>
+      <c r="D76">
+        <v>1206.0999999999999</v>
+      </c>
+      <c r="E76">
+        <v>2384</v>
+      </c>
+      <c r="F76">
+        <v>550.5</v>
+      </c>
+      <c r="G76">
+        <v>4097</v>
+      </c>
+      <c r="H76">
+        <v>9824.5</v>
+      </c>
+      <c r="I76">
+        <v>785.7</v>
+      </c>
+      <c r="J76">
+        <v>2144.3000000000002</v>
+      </c>
+      <c r="K76">
+        <v>707</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3230.1</v>
+      </c>
+      <c r="O76">
+        <v>7029.6</v>
+      </c>
+      <c r="P76">
+        <v>3476.1</v>
+      </c>
+      <c r="Q76">
+        <v>-26.1</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2794.9</v>
+      </c>
+      <c r="U76">
+        <v>83.4</v>
+      </c>
+      <c r="V76">
+        <v>51.7</v>
+      </c>
+      <c r="W76">
+        <v>-52.8</v>
+      </c>
+      <c r="X76">
+        <v>-48.5</v>
+      </c>
+      <c r="Y76">
+        <v>165.3</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>90.4</v>
+      </c>
+      <c r="D77">
+        <v>1014.3</v>
+      </c>
+      <c r="E77">
+        <v>2001.1</v>
+      </c>
+      <c r="F77">
+        <v>432.4</v>
+      </c>
+      <c r="G77">
+        <v>4077.6</v>
+      </c>
+      <c r="H77">
+        <v>9803.7999999999993</v>
+      </c>
+      <c r="I77">
+        <v>667</v>
+      </c>
+      <c r="J77">
+        <v>3032.4</v>
+      </c>
+      <c r="K77">
+        <v>173.7</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2521.5</v>
+      </c>
+      <c r="O77">
+        <v>7124.5</v>
+      </c>
+      <c r="P77">
+        <v>3784</v>
+      </c>
+      <c r="Q77">
+        <v>336.3</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2679.3</v>
+      </c>
+      <c r="U77">
+        <v>419.7</v>
+      </c>
+      <c r="V77">
+        <v>255.1</v>
+      </c>
+      <c r="W77">
+        <v>-52.3</v>
+      </c>
+      <c r="X77">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>165.2</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>-3.2</v>
+      </c>
+      <c r="D78">
+        <v>1197.3</v>
+      </c>
+      <c r="E78">
+        <v>2231.1999999999998</v>
+      </c>
+      <c r="F78">
+        <v>556</v>
+      </c>
+      <c r="G78">
+        <v>4074.8</v>
+      </c>
+      <c r="H78">
+        <v>9872.7000000000007</v>
+      </c>
+      <c r="I78">
+        <v>900.1</v>
+      </c>
+      <c r="J78">
+        <v>3031.1</v>
+      </c>
+      <c r="K78">
+        <v>144.9</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2723.9</v>
+      </c>
+      <c r="O78">
+        <v>7311.3</v>
+      </c>
+      <c r="P78">
+        <v>3453.5</v>
+      </c>
+      <c r="Q78">
+        <v>-80.599999999999994</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>6400</v>
+      </c>
+      <c r="T78">
+        <v>2561.4</v>
+      </c>
+      <c r="U78">
+        <v>339.1</v>
+      </c>
+      <c r="V78">
+        <v>458.9</v>
+      </c>
+      <c r="W78">
+        <v>-52</v>
+      </c>
+      <c r="X78">
+        <v>-461.8</v>
+      </c>
+      <c r="Y78">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>206.2</v>
+      </c>
+      <c r="D79">
+        <v>1250</v>
+      </c>
+      <c r="E79">
+        <v>2460.1</v>
+      </c>
+      <c r="F79">
+        <v>561.5</v>
+      </c>
+      <c r="G79">
+        <v>4472</v>
+      </c>
+      <c r="H79">
+        <v>10189.200000000001</v>
+      </c>
+      <c r="I79">
+        <v>838.4</v>
+      </c>
+      <c r="J79">
+        <v>3531.8</v>
+      </c>
+      <c r="K79">
+        <v>186.3</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.7</v>
+      </c>
+      <c r="N79">
+        <v>2456.5</v>
+      </c>
+      <c r="O79">
+        <v>7486.5</v>
+      </c>
+      <c r="P79">
+        <v>3971.4</v>
+      </c>
+      <c r="Q79">
+        <v>97.1</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2702.7</v>
+      </c>
+      <c r="U79">
+        <v>436.2</v>
+      </c>
+      <c r="V79">
+        <v>-328.3</v>
+      </c>
+      <c r="W79">
+        <v>-57</v>
+      </c>
+      <c r="X79">
+        <v>474.8</v>
+      </c>
+      <c r="Y79">
+        <v>156.1</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>206.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>184.4</v>
+      </c>
+      <c r="D80">
+        <v>1155.3</v>
+      </c>
+      <c r="E80">
+        <v>2342.4</v>
+      </c>
+      <c r="F80">
+        <v>522.70000000000005</v>
+      </c>
+      <c r="G80">
+        <v>4288.2</v>
+      </c>
+      <c r="H80">
+        <v>9993.7000000000007</v>
+      </c>
+      <c r="I80">
+        <v>842.2</v>
+      </c>
+      <c r="J80">
+        <v>3027.5</v>
+      </c>
+      <c r="K80">
+        <v>425.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2682.9</v>
+      </c>
+      <c r="O80">
+        <v>7142.8</v>
+      </c>
+      <c r="P80">
+        <v>3716.9</v>
+      </c>
+      <c r="Q80">
+        <v>-93.5</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2850.9</v>
+      </c>
+      <c r="U80">
+        <v>342.7</v>
+      </c>
+      <c r="V80">
+        <v>234.6</v>
+      </c>
+      <c r="W80">
+        <v>-57.1</v>
+      </c>
+      <c r="X80">
+        <v>-299.89999999999998</v>
+      </c>
+      <c r="Y80">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>184.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>111.4</v>
+      </c>
+      <c r="D81">
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="E81">
+        <v>2137.9</v>
+      </c>
+      <c r="F81">
+        <v>466.4</v>
+      </c>
+      <c r="G81">
+        <v>4015.2</v>
+      </c>
+      <c r="H81">
+        <v>9772.2000000000007</v>
+      </c>
+      <c r="I81">
+        <v>757.2</v>
+      </c>
+      <c r="J81">
+        <v>3028.3</v>
+      </c>
+      <c r="K81">
+        <v>116.2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2368.3000000000002</v>
+      </c>
+      <c r="O81">
+        <v>6803.8</v>
+      </c>
+      <c r="P81">
+        <v>3404.8</v>
+      </c>
+      <c r="Q81">
+        <v>-45.6</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2968.4</v>
+      </c>
+      <c r="U81">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="V81">
+        <v>340.9</v>
+      </c>
+      <c r="W81">
+        <v>-57.2</v>
+      </c>
+      <c r="X81">
+        <v>-361.3</v>
+      </c>
+      <c r="Y81">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>49.5</v>
+      </c>
+      <c r="D82">
         <v>1152.2</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2330.3000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>501.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4375.6000000000004</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>10186.4</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>946.7</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2929.5</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>244.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2829</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7202.2</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3444.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>271.8</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>6400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2984.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>568.9</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>400.6</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-57.2</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-63.9</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>151.1</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>49.5</v>
       </c>
     </row>
